--- a/BackTest/2020-01-11 BackTest BTC.xlsx
+++ b/BackTest/2020-01-11 BackTest BTC.xlsx
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
@@ -28696,14 +28696,20 @@
         <v>8847816.666666666</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I809" t="n">
         <v>0</v>
       </c>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>8825000</v>
+      </c>
       <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -28731,14 +28737,20 @@
         <v>8847166.666666666</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I810" t="n">
         <v>0</v>
       </c>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>8821000</v>
+      </c>
       <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -28766,14 +28778,20 @@
         <v>8846550</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I811" t="n">
         <v>0</v>
       </c>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>8833000</v>
+      </c>
       <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -28801,14 +28819,20 @@
         <v>8846150</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I812" t="n">
         <v>0</v>
       </c>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>8832000</v>
+      </c>
       <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -28836,14 +28860,20 @@
         <v>8845683.333333334</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I813" t="n">
         <v>0</v>
       </c>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>8842000</v>
+      </c>
       <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -28871,14 +28901,20 @@
         <v>8845283.333333334</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I814" t="n">
         <v>0</v>
       </c>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>8840000</v>
+      </c>
       <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -28913,7 +28949,11 @@
       </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -28948,7 +28988,11 @@
       </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -28983,7 +29027,11 @@
       </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -29018,7 +29066,11 @@
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr"/>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -29053,7 +29105,11 @@
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr"/>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -29088,7 +29144,11 @@
       </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr"/>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -29123,7 +29183,11 @@
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr"/>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -29158,7 +29222,11 @@
       </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr"/>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -29193,7 +29261,11 @@
       </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr"/>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -29228,7 +29300,11 @@
       </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr"/>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -29263,7 +29339,11 @@
       </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr"/>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -29298,7 +29378,11 @@
       </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -29333,7 +29417,11 @@
       </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -29368,7 +29456,11 @@
       </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr"/>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -29403,7 +29495,11 @@
       </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -29438,7 +29534,11 @@
       </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr"/>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -29473,7 +29573,11 @@
       </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr"/>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -29508,7 +29612,11 @@
       </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr"/>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -29543,7 +29651,11 @@
       </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr"/>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -29578,7 +29690,11 @@
       </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr"/>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -29613,7 +29729,11 @@
       </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr"/>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -29648,7 +29768,11 @@
       </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr"/>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -29683,7 +29807,11 @@
       </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr"/>
-      <c r="L837" t="inlineStr"/>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -29718,7 +29846,11 @@
       </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr"/>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -29753,7 +29885,11 @@
       </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
-      <c r="L839" t="inlineStr"/>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -29788,7 +29924,11 @@
       </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr"/>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -29823,7 +29963,11 @@
       </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
-      <c r="L841" t="inlineStr"/>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -29858,7 +30002,11 @@
       </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
-      <c r="L842" t="inlineStr"/>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -29893,7 +30041,11 @@
       </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
-      <c r="L843" t="inlineStr"/>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -29928,7 +30080,11 @@
       </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr"/>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -29963,7 +30119,11 @@
       </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr"/>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -29998,7 +30158,11 @@
       </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
-      <c r="L846" t="inlineStr"/>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -30033,7 +30197,11 @@
       </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr"/>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -30068,7 +30236,11 @@
       </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
-      <c r="L848" t="inlineStr"/>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -30103,7 +30275,11 @@
       </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
-      <c r="L849" t="inlineStr"/>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -30138,7 +30314,11 @@
       </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
-      <c r="L850" t="inlineStr"/>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -30173,7 +30353,11 @@
       </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
-      <c r="L851" t="inlineStr"/>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -30208,7 +30392,11 @@
       </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
-      <c r="L852" t="inlineStr"/>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -30243,7 +30431,11 @@
       </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr"/>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -30278,7 +30470,11 @@
       </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr"/>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -30313,7 +30509,11 @@
       </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
-      <c r="L855" t="inlineStr"/>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -30348,7 +30548,11 @@
       </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr"/>
-      <c r="L856" t="inlineStr"/>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -30383,7 +30587,11 @@
       </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr"/>
-      <c r="L857" t="inlineStr"/>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -30418,7 +30626,11 @@
       </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
-      <c r="L858" t="inlineStr"/>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M858" t="n">
         <v>1</v>
       </c>
@@ -30453,7 +30665,11 @@
       </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr"/>
-      <c r="L859" t="inlineStr"/>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M859" t="n">
         <v>1</v>
       </c>
@@ -30488,7 +30704,11 @@
       </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr"/>
-      <c r="L860" t="inlineStr"/>
+      <c r="L860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M860" t="n">
         <v>1</v>
       </c>
@@ -30523,7 +30743,11 @@
       </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr"/>
-      <c r="L861" t="inlineStr"/>
+      <c r="L861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M861" t="n">
         <v>1</v>
       </c>
@@ -30558,7 +30782,11 @@
       </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr"/>
-      <c r="L862" t="inlineStr"/>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M862" t="n">
         <v>1</v>
       </c>
@@ -30593,7 +30821,11 @@
       </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr"/>
-      <c r="L863" t="inlineStr"/>
+      <c r="L863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M863" t="n">
         <v>1</v>
       </c>
@@ -30628,7 +30860,11 @@
       </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr"/>
-      <c r="L864" t="inlineStr"/>
+      <c r="L864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M864" t="n">
         <v>1</v>
       </c>
@@ -30663,7 +30899,11 @@
       </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr"/>
-      <c r="L865" t="inlineStr"/>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M865" t="n">
         <v>1</v>
       </c>
@@ -30698,7 +30938,11 @@
       </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr"/>
-      <c r="L866" t="inlineStr"/>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M866" t="n">
         <v>1</v>
       </c>
@@ -30733,7 +30977,11 @@
       </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr"/>
-      <c r="L867" t="inlineStr"/>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M867" t="n">
         <v>1</v>
       </c>
@@ -30768,7 +31016,11 @@
       </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr"/>
-      <c r="L868" t="inlineStr"/>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -30803,7 +31055,11 @@
       </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr"/>
-      <c r="L869" t="inlineStr"/>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -30838,7 +31094,11 @@
       </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr"/>
-      <c r="L870" t="inlineStr"/>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -30873,7 +31133,11 @@
       </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr"/>
-      <c r="L871" t="inlineStr"/>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -30908,7 +31172,11 @@
       </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr"/>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -30943,7 +31211,11 @@
       </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr"/>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -30978,7 +31250,11 @@
       </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr"/>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -31013,7 +31289,11 @@
       </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr"/>
-      <c r="L875" t="inlineStr"/>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -31048,7 +31328,11 @@
       </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr"/>
-      <c r="L876" t="inlineStr"/>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M876" t="n">
         <v>1</v>
       </c>
@@ -31083,7 +31367,11 @@
       </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr"/>
-      <c r="L877" t="inlineStr"/>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M877" t="n">
         <v>1</v>
       </c>
@@ -31118,7 +31406,11 @@
       </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr"/>
-      <c r="L878" t="inlineStr"/>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M878" t="n">
         <v>1</v>
       </c>
@@ -31153,7 +31445,11 @@
       </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr"/>
-      <c r="L879" t="inlineStr"/>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M879" t="n">
         <v>1</v>
       </c>
@@ -31188,7 +31484,11 @@
       </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr"/>
-      <c r="L880" t="inlineStr"/>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M880" t="n">
         <v>1</v>
       </c>
@@ -31223,7 +31523,11 @@
       </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr"/>
-      <c r="L881" t="inlineStr"/>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M881" t="n">
         <v>1</v>
       </c>
@@ -31258,7 +31562,11 @@
       </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr"/>
-      <c r="L882" t="inlineStr"/>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M882" t="n">
         <v>1</v>
       </c>
@@ -31293,7 +31601,11 @@
       </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr"/>
-      <c r="L883" t="inlineStr"/>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M883" t="n">
         <v>1</v>
       </c>
@@ -31328,7 +31640,11 @@
       </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr"/>
-      <c r="L884" t="inlineStr"/>
+      <c r="L884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M884" t="n">
         <v>1</v>
       </c>
@@ -31363,7 +31679,11 @@
       </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr"/>
-      <c r="L885" t="inlineStr"/>
+      <c r="L885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M885" t="n">
         <v>1</v>
       </c>
@@ -31398,7 +31718,11 @@
       </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr"/>
-      <c r="L886" t="inlineStr"/>
+      <c r="L886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M886" t="n">
         <v>1</v>
       </c>
@@ -31433,7 +31757,11 @@
       </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr"/>
-      <c r="L887" t="inlineStr"/>
+      <c r="L887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M887" t="n">
         <v>1</v>
       </c>
@@ -31468,7 +31796,11 @@
       </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr"/>
-      <c r="L888" t="inlineStr"/>
+      <c r="L888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M888" t="n">
         <v>1</v>
       </c>
@@ -31503,7 +31835,11 @@
       </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr"/>
-      <c r="L889" t="inlineStr"/>
+      <c r="L889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M889" t="n">
         <v>1</v>
       </c>
@@ -31538,7 +31874,11 @@
       </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr"/>
-      <c r="L890" t="inlineStr"/>
+      <c r="L890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M890" t="n">
         <v>1</v>
       </c>
@@ -31573,7 +31913,11 @@
       </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr"/>
-      <c r="L891" t="inlineStr"/>
+      <c r="L891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M891" t="n">
         <v>1</v>
       </c>
@@ -31608,7 +31952,11 @@
       </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr"/>
-      <c r="L892" t="inlineStr"/>
+      <c r="L892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M892" t="n">
         <v>1</v>
       </c>
@@ -31643,7 +31991,11 @@
       </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr"/>
-      <c r="L893" t="inlineStr"/>
+      <c r="L893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M893" t="n">
         <v>1</v>
       </c>
@@ -31678,7 +32030,11 @@
       </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr"/>
-      <c r="L894" t="inlineStr"/>
+      <c r="L894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M894" t="n">
         <v>1</v>
       </c>
@@ -31713,7 +32069,11 @@
       </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr"/>
-      <c r="L895" t="inlineStr"/>
+      <c r="L895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M895" t="n">
         <v>1</v>
       </c>
@@ -31748,7 +32108,11 @@
       </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr"/>
-      <c r="L896" t="inlineStr"/>
+      <c r="L896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M896" t="n">
         <v>1</v>
       </c>
@@ -31783,7 +32147,11 @@
       </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr"/>
-      <c r="L897" t="inlineStr"/>
+      <c r="L897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M897" t="n">
         <v>1</v>
       </c>
@@ -31818,7 +32186,11 @@
       </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr"/>
-      <c r="L898" t="inlineStr"/>
+      <c r="L898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M898" t="n">
         <v>1</v>
       </c>
@@ -31853,7 +32225,11 @@
       </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr"/>
-      <c r="L899" t="inlineStr"/>
+      <c r="L899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M899" t="n">
         <v>1</v>
       </c>
@@ -31888,7 +32264,11 @@
       </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr"/>
-      <c r="L900" t="inlineStr"/>
+      <c r="L900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M900" t="n">
         <v>1</v>
       </c>
@@ -31923,7 +32303,11 @@
       </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr"/>
-      <c r="L901" t="inlineStr"/>
+      <c r="L901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M901" t="n">
         <v>1</v>
       </c>
@@ -31958,7 +32342,11 @@
       </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr"/>
-      <c r="L902" t="inlineStr"/>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M902" t="n">
         <v>1</v>
       </c>
@@ -31993,7 +32381,11 @@
       </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr"/>
-      <c r="L903" t="inlineStr"/>
+      <c r="L903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M903" t="n">
         <v>1</v>
       </c>
@@ -32028,7 +32420,11 @@
       </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr"/>
-      <c r="L904" t="inlineStr"/>
+      <c r="L904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M904" t="n">
         <v>1</v>
       </c>
@@ -32063,7 +32459,11 @@
       </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr"/>
-      <c r="L905" t="inlineStr"/>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M905" t="n">
         <v>1</v>
       </c>
@@ -32098,7 +32498,11 @@
       </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr"/>
-      <c r="L906" t="inlineStr"/>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M906" t="n">
         <v>1</v>
       </c>
@@ -32133,7 +32537,11 @@
       </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr"/>
-      <c r="L907" t="inlineStr"/>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M907" t="n">
         <v>1</v>
       </c>
@@ -32168,7 +32576,11 @@
       </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr"/>
-      <c r="L908" t="inlineStr"/>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M908" t="n">
         <v>1</v>
       </c>
@@ -32203,7 +32615,11 @@
       </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr"/>
-      <c r="L909" t="inlineStr"/>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M909" t="n">
         <v>1</v>
       </c>
@@ -32238,7 +32654,11 @@
       </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr"/>
-      <c r="L910" t="inlineStr"/>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M910" t="n">
         <v>1</v>
       </c>
@@ -32273,7 +32693,11 @@
       </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr"/>
-      <c r="L911" t="inlineStr"/>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M911" t="n">
         <v>1</v>
       </c>
@@ -32308,7 +32732,11 @@
       </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr"/>
-      <c r="L912" t="inlineStr"/>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M912" t="n">
         <v>1</v>
       </c>
@@ -32343,7 +32771,11 @@
       </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr"/>
-      <c r="L913" t="inlineStr"/>
+      <c r="L913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M913" t="n">
         <v>1</v>
       </c>
@@ -32378,7 +32810,11 @@
       </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr"/>
-      <c r="L914" t="inlineStr"/>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M914" t="n">
         <v>1</v>
       </c>
@@ -32413,7 +32849,11 @@
       </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr"/>
-      <c r="L915" t="inlineStr"/>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M915" t="n">
         <v>1</v>
       </c>
@@ -32448,7 +32888,11 @@
       </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr"/>
-      <c r="L916" t="inlineStr"/>
+      <c r="L916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M916" t="n">
         <v>1</v>
       </c>
@@ -32483,7 +32927,11 @@
       </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr"/>
-      <c r="L917" t="inlineStr"/>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M917" t="n">
         <v>1</v>
       </c>
@@ -32518,7 +32966,11 @@
       </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr"/>
-      <c r="L918" t="inlineStr"/>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M918" t="n">
         <v>1</v>
       </c>
@@ -32553,7 +33005,11 @@
       </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr"/>
-      <c r="L919" t="inlineStr"/>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M919" t="n">
         <v>1</v>
       </c>
@@ -32588,7 +33044,11 @@
       </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr"/>
-      <c r="L920" t="inlineStr"/>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M920" t="n">
         <v>1</v>
       </c>
@@ -32623,7 +33083,11 @@
       </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr"/>
-      <c r="L921" t="inlineStr"/>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M921" t="n">
         <v>1</v>
       </c>
@@ -32658,7 +33122,11 @@
       </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr"/>
-      <c r="L922" t="inlineStr"/>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M922" t="n">
         <v>1</v>
       </c>
@@ -32693,7 +33161,11 @@
       </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr"/>
-      <c r="L923" t="inlineStr"/>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M923" t="n">
         <v>1</v>
       </c>
@@ -32728,7 +33200,11 @@
       </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr"/>
-      <c r="L924" t="inlineStr"/>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M924" t="n">
         <v>1</v>
       </c>
@@ -32763,7 +33239,11 @@
       </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr"/>
-      <c r="L925" t="inlineStr"/>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M925" t="n">
         <v>1</v>
       </c>
@@ -32798,7 +33278,11 @@
       </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr"/>
-      <c r="L926" t="inlineStr"/>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M926" t="n">
         <v>1</v>
       </c>
@@ -32833,7 +33317,11 @@
       </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr"/>
-      <c r="L927" t="inlineStr"/>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M927" t="n">
         <v>1</v>
       </c>
@@ -32868,7 +33356,11 @@
       </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr"/>
-      <c r="L928" t="inlineStr"/>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M928" t="n">
         <v>1</v>
       </c>
@@ -32903,7 +33395,11 @@
       </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr"/>
-      <c r="L929" t="inlineStr"/>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M929" t="n">
         <v>1</v>
       </c>
@@ -32938,7 +33434,11 @@
       </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr"/>
-      <c r="L930" t="inlineStr"/>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M930" t="n">
         <v>1</v>
       </c>
@@ -32973,7 +33473,11 @@
       </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr"/>
-      <c r="L931" t="inlineStr"/>
+      <c r="L931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M931" t="n">
         <v>1</v>
       </c>
@@ -33001,18 +33505,16 @@
         <v>8816233.333333334</v>
       </c>
       <c r="H932" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I932" t="n">
         <v>0</v>
       </c>
-      <c r="J932" t="n">
-        <v>8785000</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr"/>
       <c r="L932" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M932" t="n">
@@ -33042,14 +33544,12 @@
         <v>8815466.666666666</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I933" t="n">
         <v>0</v>
       </c>
-      <c r="J933" t="n">
-        <v>8794000</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr"/>
       <c r="L933" t="inlineStr">
         <is>
@@ -33122,14 +33622,12 @@
         <v>8813850</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I935" t="n">
         <v>0</v>
       </c>
-      <c r="J935" t="n">
-        <v>8793000</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr"/>
       <c r="L935" t="inlineStr">
         <is>
@@ -33163,14 +33661,12 @@
         <v>8813183.333333334</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I936" t="n">
         <v>0</v>
       </c>
-      <c r="J936" t="n">
-        <v>8797000</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr"/>
       <c r="L936" t="inlineStr">
         <is>
@@ -33204,14 +33700,12 @@
         <v>8812350</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I937" t="n">
         <v>0</v>
       </c>
-      <c r="J937" t="n">
-        <v>8794000</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr"/>
       <c r="L937" t="inlineStr">
         <is>
@@ -33245,14 +33739,12 @@
         <v>8811650</v>
       </c>
       <c r="H938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I938" t="n">
         <v>0</v>
       </c>
-      <c r="J938" t="n">
-        <v>8790000</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr"/>
       <c r="L938" t="inlineStr">
         <is>
@@ -33286,14 +33778,12 @@
         <v>8810900</v>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I939" t="n">
         <v>0</v>
       </c>
-      <c r="J939" t="n">
-        <v>8788000</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr"/>
       <c r="L939" t="inlineStr">
         <is>
@@ -33327,14 +33817,12 @@
         <v>8810066.666666666</v>
       </c>
       <c r="H940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I940" t="n">
         <v>0</v>
       </c>
-      <c r="J940" t="n">
-        <v>8785000</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr"/>
       <c r="L940" t="inlineStr">
         <is>
@@ -33368,14 +33856,12 @@
         <v>8809266.666666666</v>
       </c>
       <c r="H941" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I941" t="n">
         <v>0</v>
       </c>
-      <c r="J941" t="n">
-        <v>8786000</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr"/>
       <c r="L941" t="inlineStr">
         <is>
@@ -33409,14 +33895,12 @@
         <v>8808500</v>
       </c>
       <c r="H942" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I942" t="n">
         <v>0</v>
       </c>
-      <c r="J942" t="n">
-        <v>8784000</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr"/>
       <c r="L942" t="inlineStr">
         <is>
@@ -33450,14 +33934,12 @@
         <v>8807650</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I943" t="n">
         <v>0</v>
       </c>
-      <c r="J943" t="n">
-        <v>8784000</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr"/>
       <c r="L943" t="inlineStr">
         <is>
@@ -33491,14 +33973,12 @@
         <v>8806733.333333334</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I944" t="n">
         <v>0</v>
       </c>
-      <c r="J944" t="n">
-        <v>8779000</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr"/>
       <c r="L944" t="inlineStr">
         <is>
@@ -33532,14 +34012,12 @@
         <v>8805900</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I945" t="n">
         <v>0</v>
       </c>
-      <c r="J945" t="n">
-        <v>8774000</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr"/>
       <c r="L945" t="inlineStr">
         <is>
@@ -33573,14 +34051,12 @@
         <v>8804850</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I946" t="n">
         <v>0</v>
       </c>
-      <c r="J946" t="n">
-        <v>8777000</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr"/>
       <c r="L946" t="inlineStr">
         <is>
@@ -33614,14 +34090,12 @@
         <v>8803866.666666666</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I947" t="n">
         <v>0</v>
       </c>
-      <c r="J947" t="n">
-        <v>8767000</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr"/>
       <c r="L947" t="inlineStr">
         <is>
@@ -33655,14 +34129,12 @@
         <v>8802833.333333334</v>
       </c>
       <c r="H948" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I948" t="n">
         <v>0</v>
       </c>
-      <c r="J948" t="n">
-        <v>8767000</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr"/>
       <c r="L948" t="inlineStr">
         <is>
@@ -33696,14 +34168,12 @@
         <v>8801766.666666666</v>
       </c>
       <c r="H949" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I949" t="n">
         <v>0</v>
       </c>
-      <c r="J949" t="n">
-        <v>8761000</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr"/>
       <c r="L949" t="inlineStr">
         <is>
@@ -33737,14 +34207,12 @@
         <v>8800716.666666666</v>
       </c>
       <c r="H950" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I950" t="n">
         <v>0</v>
       </c>
-      <c r="J950" t="n">
-        <v>8763000</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr"/>
       <c r="L950" t="inlineStr">
         <is>
@@ -33778,14 +34246,12 @@
         <v>8799666.666666666</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I951" t="n">
         <v>0</v>
       </c>
-      <c r="J951" t="n">
-        <v>8756000</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr"/>
       <c r="L951" t="inlineStr">
         <is>
@@ -33819,14 +34285,12 @@
         <v>8798433.333333334</v>
       </c>
       <c r="H952" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I952" t="n">
         <v>0</v>
       </c>
-      <c r="J952" t="n">
-        <v>8756000</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr"/>
       <c r="L952" t="inlineStr">
         <is>
@@ -33860,14 +34324,12 @@
         <v>8797450</v>
       </c>
       <c r="H953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I953" t="n">
         <v>0</v>
       </c>
-      <c r="J953" t="n">
-        <v>8754000</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr"/>
       <c r="L953" t="inlineStr">
         <is>
@@ -33901,14 +34363,12 @@
         <v>8796633.333333334</v>
       </c>
       <c r="H954" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I954" t="n">
         <v>0</v>
       </c>
-      <c r="J954" t="n">
-        <v>8770000</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr"/>
       <c r="L954" t="inlineStr">
         <is>
@@ -33942,14 +34402,12 @@
         <v>8795933.333333334</v>
       </c>
       <c r="H955" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I955" t="n">
         <v>0</v>
       </c>
-      <c r="J955" t="n">
-        <v>8783000</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr"/>
       <c r="L955" t="inlineStr">
         <is>
@@ -33983,14 +34441,12 @@
         <v>8795183.333333334</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I956" t="n">
         <v>0</v>
       </c>
-      <c r="J956" t="n">
-        <v>8785000</v>
-      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr"/>
       <c r="L956" t="inlineStr">
         <is>
@@ -34024,14 +34480,12 @@
         <v>8794500</v>
       </c>
       <c r="H957" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I957" t="n">
         <v>0</v>
       </c>
-      <c r="J957" t="n">
-        <v>8782000</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr"/>
       <c r="L957" t="inlineStr">
         <is>
@@ -34065,14 +34519,12 @@
         <v>8793716.666666666</v>
       </c>
       <c r="H958" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I958" t="n">
         <v>0</v>
       </c>
-      <c r="J958" t="n">
-        <v>8782000</v>
-      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr"/>
       <c r="L958" t="inlineStr">
         <is>
@@ -34106,14 +34558,12 @@
         <v>8792750</v>
       </c>
       <c r="H959" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I959" t="n">
         <v>0</v>
       </c>
-      <c r="J959" t="n">
-        <v>8778000</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr"/>
       <c r="L959" t="inlineStr">
         <is>
@@ -34147,14 +34597,12 @@
         <v>8791816.666666666</v>
       </c>
       <c r="H960" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I960" t="n">
         <v>0</v>
       </c>
-      <c r="J960" t="n">
-        <v>8773000</v>
-      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
       <c r="L960" t="inlineStr">
         <is>
@@ -34188,14 +34636,12 @@
         <v>8790766.666666666</v>
       </c>
       <c r="H961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I961" t="n">
         <v>0</v>
       </c>
-      <c r="J961" t="n">
-        <v>8771000</v>
-      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
       <c r="L961" t="inlineStr">
         <is>
@@ -34229,14 +34675,12 @@
         <v>8789833.333333334</v>
       </c>
       <c r="H962" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I962" t="n">
         <v>0</v>
       </c>
-      <c r="J962" t="n">
-        <v>8772000</v>
-      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr"/>
       <c r="L962" t="inlineStr">
         <is>
@@ -34270,14 +34714,12 @@
         <v>8788800</v>
       </c>
       <c r="H963" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I963" t="n">
         <v>0</v>
       </c>
-      <c r="J963" t="n">
-        <v>8775000</v>
-      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr"/>
       <c r="L963" t="inlineStr">
         <is>
@@ -34311,14 +34753,12 @@
         <v>8787833.333333334</v>
       </c>
       <c r="H964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I964" t="n">
         <v>0</v>
       </c>
-      <c r="J964" t="n">
-        <v>8773000</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
       <c r="L964" t="inlineStr">
         <is>
@@ -34352,14 +34792,12 @@
         <v>8786983.333333334</v>
       </c>
       <c r="H965" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I965" t="n">
         <v>0</v>
       </c>
-      <c r="J965" t="n">
-        <v>8771000</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
       <c r="L965" t="inlineStr">
         <is>
@@ -34393,14 +34831,12 @@
         <v>8786200</v>
       </c>
       <c r="H966" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I966" t="n">
         <v>0</v>
       </c>
-      <c r="J966" t="n">
-        <v>8770000</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr"/>
       <c r="L966" t="inlineStr">
         <is>
@@ -34434,14 +34870,12 @@
         <v>8785416.666666666</v>
       </c>
       <c r="H967" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I967" t="n">
         <v>0</v>
       </c>
-      <c r="J967" t="n">
-        <v>8769000</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
       <c r="L967" t="inlineStr">
         <is>
@@ -34475,14 +34909,12 @@
         <v>8784700</v>
       </c>
       <c r="H968" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I968" t="n">
         <v>0</v>
       </c>
-      <c r="J968" t="n">
-        <v>8769000</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr"/>
       <c r="L968" t="inlineStr">
         <is>
@@ -34516,14 +34948,12 @@
         <v>8783933.333333334</v>
       </c>
       <c r="H969" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I969" t="n">
         <v>0</v>
       </c>
-      <c r="J969" t="n">
-        <v>8770000</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr"/>
       <c r="L969" t="inlineStr">
         <is>
@@ -34557,14 +34987,12 @@
         <v>8783200</v>
       </c>
       <c r="H970" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I970" t="n">
         <v>0</v>
       </c>
-      <c r="J970" t="n">
-        <v>8769000</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
       <c r="L970" t="inlineStr">
         <is>
@@ -34598,14 +35026,12 @@
         <v>8782416.666666666</v>
       </c>
       <c r="H971" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I971" t="n">
         <v>0</v>
       </c>
-      <c r="J971" t="n">
-        <v>8770000</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
       <c r="L971" t="inlineStr">
         <is>
@@ -34639,14 +35065,12 @@
         <v>8781700</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I972" t="n">
         <v>0</v>
       </c>
-      <c r="J972" t="n">
-        <v>8766000</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
       <c r="L972" t="inlineStr">
         <is>
@@ -34680,14 +35104,12 @@
         <v>8781066.666666666</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I973" t="n">
         <v>0</v>
       </c>
-      <c r="J973" t="n">
-        <v>8770000</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr"/>
       <c r="L973" t="inlineStr">
         <is>
@@ -34721,14 +35143,12 @@
         <v>8780816.666666666</v>
       </c>
       <c r="H974" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I974" t="n">
         <v>0</v>
       </c>
-      <c r="J974" t="n">
-        <v>8772000</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr"/>
       <c r="L974" t="inlineStr">
         <is>
@@ -34762,14 +35182,12 @@
         <v>8780566.666666666</v>
       </c>
       <c r="H975" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I975" t="n">
         <v>0</v>
       </c>
-      <c r="J975" t="n">
-        <v>8794000</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
       <c r="L975" t="inlineStr">
         <is>
@@ -34803,14 +35221,12 @@
         <v>8780283.333333334</v>
       </c>
       <c r="H976" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I976" t="n">
         <v>0</v>
       </c>
-      <c r="J976" t="n">
-        <v>8793000</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr"/>
       <c r="L976" t="inlineStr">
         <is>
@@ -34844,14 +35260,12 @@
         <v>8780100</v>
       </c>
       <c r="H977" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I977" t="n">
         <v>0</v>
       </c>
-      <c r="J977" t="n">
-        <v>8791000</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr"/>
       <c r="L977" t="inlineStr">
         <is>
@@ -34885,14 +35299,12 @@
         <v>8779800</v>
       </c>
       <c r="H978" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I978" t="n">
         <v>0</v>
       </c>
-      <c r="J978" t="n">
-        <v>8791000</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
       <c r="L978" t="inlineStr">
         <is>
@@ -34926,14 +35338,12 @@
         <v>8779633.333333334</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I979" t="n">
         <v>0</v>
       </c>
-      <c r="J979" t="n">
-        <v>8790000</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr"/>
       <c r="L979" t="inlineStr">
         <is>
@@ -34967,14 +35377,12 @@
         <v>8779583.333333334</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I980" t="n">
         <v>0</v>
       </c>
-      <c r="J980" t="n">
-        <v>8790000</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr"/>
       <c r="L980" t="inlineStr">
         <is>
@@ -35008,14 +35416,12 @@
         <v>8779516.666666666</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I981" t="n">
         <v>0</v>
       </c>
-      <c r="J981" t="n">
-        <v>8790000</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr"/>
       <c r="L981" t="inlineStr">
         <is>
@@ -35049,14 +35455,12 @@
         <v>8779583.333333334</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I982" t="n">
         <v>0</v>
       </c>
-      <c r="J982" t="n">
-        <v>8792000</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr"/>
       <c r="L982" t="inlineStr">
         <is>
@@ -35090,14 +35494,12 @@
         <v>8779683.333333334</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I983" t="n">
         <v>0</v>
       </c>
-      <c r="J983" t="n">
-        <v>8797000</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr"/>
       <c r="L983" t="inlineStr">
         <is>
@@ -35131,14 +35533,12 @@
         <v>8779966.666666666</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I984" t="n">
         <v>0</v>
       </c>
-      <c r="J984" t="n">
-        <v>8799000</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr"/>
       <c r="L984" t="inlineStr">
         <is>
@@ -35172,14 +35572,12 @@
         <v>8780266.666666666</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I985" t="n">
         <v>0</v>
       </c>
-      <c r="J985" t="n">
-        <v>8802000</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr"/>
       <c r="L985" t="inlineStr">
         <is>
@@ -39933,7 +40331,7 @@
         <v>0</v>
       </c>
       <c r="I1107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr"/>
@@ -39968,7 +40366,7 @@
         <v>0</v>
       </c>
       <c r="I1108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr"/>
@@ -40003,7 +40401,7 @@
         <v>0</v>
       </c>
       <c r="I1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr"/>
@@ -40073,7 +40471,7 @@
         <v>0</v>
       </c>
       <c r="I1111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr"/>
@@ -40108,7 +40506,7 @@
         <v>0</v>
       </c>
       <c r="I1112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr"/>
@@ -40318,7 +40716,7 @@
         <v>0</v>
       </c>
       <c r="I1118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr"/>
@@ -40353,7 +40751,7 @@
         <v>0</v>
       </c>
       <c r="I1119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr"/>
@@ -40388,7 +40786,7 @@
         <v>0</v>
       </c>
       <c r="I1120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr"/>
@@ -40423,7 +40821,7 @@
         <v>0</v>
       </c>
       <c r="I1121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr"/>
@@ -40493,7 +40891,7 @@
         <v>0</v>
       </c>
       <c r="I1123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr"/>
@@ -40528,7 +40926,7 @@
         <v>0</v>
       </c>
       <c r="I1124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest BTC.xlsx
+++ b/BackTest/2020-01-11 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16.69745307</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-14.79999378</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-14.79999378</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-14.79999378</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-14.79999378</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-12.70747924</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-12.50677924</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-14.51037924</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-18.17797924</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-18.71811157</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-22.58860271</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-21.2794776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-30.8431776</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-39.6490776</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-37.5944776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-42.3240776</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-42.3240776</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-41.65107759999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-41.65107759999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-44.3788776</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-45.77397889</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-47.72757889</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-54.92711222</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-57.13018874</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-63.79588874</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-82.80578874</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-79.25445289999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-83.97695289999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-80.61375289999998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-84.31175289999997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-99.07685289999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-90.85735289999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-92.93628771999998</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-84.39658771999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-5.621772620000024</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>7.575627379999976</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>13.75812737999998</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>14.34342737999998</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>11.24695822999998</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>7.282058229999976</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>7.317702709999976</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>7.342602709999976</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>7.263102709999975</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>8.573002709999976</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>9.552302709999976</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>9.641302709999977</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>9.698702709999976</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>6.300202709999976</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>6.294902709999976</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>7.340802709999975</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>9.654680429999974</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>9.717480429999974</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>9.600580429999974</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>9.747980429999973</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>11.22358042999997</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>12.10808042999997</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>11.14618042999997</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>11.14618042999997</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>4.788409949999973</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>5.864009949999972</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>22.52620994999997</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>36.06511223999997</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>32.52982162999997</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>30.08442162999997</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>30.08442162999997</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>24.36862162999997</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>23.46992162999997</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>26.74302167999997</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>27.53622167999997</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>29.81162167999997</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>50.84457799999997</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>62.82397799999997</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>53.41353198999997</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>58.65768116999997</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>59.24478110999997</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>61.43278121999997</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>75.02018121999997</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>81.82008121999996</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>73.37296063999996</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>64.53276063999996</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>63.49996063999996</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>62.11306063999996</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>58.62706063999997</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>47.49346063999997</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>45.30276063999997</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>45.06066063999997</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>48.14419007999997</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>38.83172019999996</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>35.00682019999996</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>31.03102021999996</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>30.54242021999996</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>31.42922021999996</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>30.36832024999996</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-35.70347950000004</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-40.32317999000004</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-38.55107999000004</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-37.08877999000004</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-35.10757999000004</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-38.66847999000004</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-41.39983697000004</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-61.68753697000004</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-55.77326855000004</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-58.50736855000004</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-83.32786855000003</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-93.20916855000003</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-83.02206855000003</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-80.95436855000003</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-77.82846855000003</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-83.94606855000002</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-86.06226855000003</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-81.94662316000003</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-82.21830963000004</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-77.07170963000003</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-74.60820963000003</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-73.17036052000003</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-72.06637565000003</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-80.60057565000002</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-82.00187565000003</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-85.76087565000003</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-83.94087565000004</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-73.12769707000007</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-73.37779707000007</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-61.06781278000007</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-60.98105459000007</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-60.68985459000007</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-60.66345459000006</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-62.50195459000007</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-68.93290022000006</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-77.59578523000009</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-67.25424468000006</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-72.88842493000006</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-80.37467017000006</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-78.76577017000005</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-78.10163769000005</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-92.68569670000005</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-90.83259670000005</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-92.86539670000005</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-89.57519670000005</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-89.57519670000005</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -32923,11 +32923,17 @@
         <v>-381.17804441</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I986" t="n">
+        <v>8787000</v>
+      </c>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -32956,11 +32962,17 @@
         <v>-392.80304441</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>8786000</v>
+      </c>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -32989,11 +33001,17 @@
         <v>-387.76970944</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>8776000</v>
+      </c>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33022,7 +33040,7 @@
         <v>-387.76970944</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I989" t="n">
         <v>8785000</v>
@@ -33030,7 +33048,7 @@
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L989" t="n">
@@ -33061,7 +33079,7 @@
         <v>-387.76970944</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I990" t="n">
         <v>8785000</v>
@@ -33100,7 +33118,7 @@
         <v>-375.09534301</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I991" t="n">
         <v>8785000</v>
@@ -33139,7 +33157,7 @@
         <v>-371.56285372</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I992" t="n">
         <v>8791000</v>
@@ -33178,9 +33196,11 @@
         <v>-373.23218157</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>8792000</v>
+      </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
@@ -33215,9 +33235,11 @@
         <v>-366.51443326</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>8788000</v>
+      </c>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
@@ -33400,9 +33422,11 @@
         <v>-368.2684932600001</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>8785000</v>
+      </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
@@ -33437,9 +33461,11 @@
         <v>-372.7553932600001</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>8785000</v>
+      </c>
       <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
@@ -33474,9 +33500,11 @@
         <v>-373.3392932600001</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>8784000</v>
+      </c>
       <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
@@ -33511,9 +33539,11 @@
         <v>-373.9550932600001</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>8783000</v>
+      </c>
       <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
@@ -33548,9 +33578,11 @@
         <v>-378.30709326</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>8780000</v>
+      </c>
       <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
@@ -33585,9 +33617,11 @@
         <v>-373.5943932600001</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>8774000</v>
+      </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
@@ -33622,9 +33656,11 @@
         <v>-376.9195932600001</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>8780000</v>
+      </c>
       <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
@@ -33659,9 +33695,11 @@
         <v>-376.9195932600001</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>8767000</v>
+      </c>
       <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
@@ -33696,9 +33734,11 @@
         <v>-382.8255932600001</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>8767000</v>
+      </c>
       <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
@@ -33733,9 +33773,11 @@
         <v>-386.94819326</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>8763000</v>
+      </c>
       <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
@@ -33770,9 +33812,11 @@
         <v>-407.74351674</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>8761000</v>
+      </c>
       <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
@@ -33807,9 +33851,11 @@
         <v>-405.21480918</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>8755000</v>
+      </c>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
@@ -33844,9 +33890,11 @@
         <v>-419.77796926</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>8756000</v>
+      </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
@@ -33918,9 +33966,11 @@
         <v>-390.3826022600001</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>8769000</v>
+      </c>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -33955,9 +34005,11 @@
         <v>-390.1635618000001</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>8782000</v>
+      </c>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -33992,9 +34044,11 @@
         <v>-394.8049186900001</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>8785000</v>
+      </c>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
@@ -34029,9 +34083,11 @@
         <v>-394.8049186900001</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>8783000</v>
+      </c>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
@@ -34066,9 +34122,11 @@
         <v>-399.6906186900001</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>8783000</v>
+      </c>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
@@ -34103,9 +34161,11 @@
         <v>-409.7673186900001</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>8780000</v>
+      </c>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
@@ -34140,9 +34200,11 @@
         <v>-409.7673186900001</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>8771000</v>
+      </c>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
@@ -34177,7 +34239,7 @@
         <v>-401.7037186900001</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1020" t="n">
         <v>8771000</v>
@@ -34253,11 +34315,9 @@
         <v>-403.7865779600001</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1022" t="n">
-        <v>8778000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
@@ -34292,7 +34352,7 @@
         <v>-403.6576779600001</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1023" t="n">
         <v>8769000</v>
@@ -34331,7 +34391,7 @@
         <v>-403.9103189300001</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1024" t="n">
         <v>8771000</v>
@@ -34370,7 +34430,7 @@
         <v>-396.8951189300001</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1025" t="n">
         <v>8770000</v>
@@ -34409,11 +34469,9 @@
         <v>-400.6668081100001</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1026" t="n">
-        <v>8772000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
@@ -34448,11 +34506,9 @@
         <v>-397.3213081100001</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1027" t="n">
-        <v>8769000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
@@ -34487,11 +34543,9 @@
         <v>-398.0541081100001</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1028" t="n">
-        <v>8772000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
@@ -34526,11 +34580,9 @@
         <v>-396.0462081100001</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1029" t="n">
-        <v>8769000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
@@ -34639,7 +34691,7 @@
         <v>-395.8955171200001</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1032" t="n">
         <v>8770000</v>
@@ -34678,7 +34730,7 @@
         <v>-379.3199171200001</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1033" t="n">
         <v>8770000</v>
@@ -34717,7 +34769,7 @@
         <v>-378.9650192100002</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1034" t="n">
         <v>8792000</v>
@@ -34756,7 +34808,7 @@
         <v>-380.9230192100002</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1035" t="n">
         <v>8793000</v>
@@ -34795,7 +34847,7 @@
         <v>-376.1037280600002</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1036" t="n">
         <v>8791000</v>
@@ -34834,7 +34886,7 @@
         <v>-378.8055280600001</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1037" t="n">
         <v>8794000</v>
@@ -34873,7 +34925,7 @@
         <v>-367.5053280600001</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1038" t="n">
         <v>8788000</v>
@@ -34912,7 +34964,7 @@
         <v>-367.3507280600001</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1039" t="n">
         <v>8790000</v>
@@ -34951,7 +35003,7 @@
         <v>-366.4671280600001</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1040" t="n">
         <v>8793000</v>
@@ -34990,7 +35042,7 @@
         <v>-363.5444933900001</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1041" t="n">
         <v>8795000</v>
@@ -35029,7 +35081,7 @@
         <v>-352.2343453500001</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1042" t="n">
         <v>8797000</v>
@@ -35068,11 +35120,9 @@
         <v>-321.5164309900001</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1043" t="n">
-        <v>8799000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
@@ -35107,11 +35157,9 @@
         <v>-314.5626370700001</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1044" t="n">
-        <v>8803000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -42805,18 +42853,16 @@
         <v>-45.25565382000005</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1252" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1252" t="inlineStr"/>
       <c r="M1252" t="inlineStr"/>
     </row>
     <row r="1253">
@@ -42846,11 +42892,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
-      <c r="K1253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1253" t="inlineStr"/>
       <c r="L1253" t="n">
         <v>1</v>
       </c>
@@ -42879,15 +42921,11 @@
         <v>-50.60695386000005</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
-      <c r="K1254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1254" t="inlineStr"/>
       <c r="L1254" t="n">
         <v>1</v>
       </c>
@@ -42916,15 +42954,11 @@
         <v>-50.60695386000005</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1255" t="inlineStr"/>
       <c r="L1255" t="n">
         <v>1</v>
       </c>
@@ -42953,15 +42987,11 @@
         <v>-48.80526365000005</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
-      <c r="K1256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1256" t="inlineStr"/>
       <c r="L1256" t="n">
         <v>1</v>
       </c>
@@ -42990,15 +43020,11 @@
         <v>-52.91336365000005</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
-      <c r="K1257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1257" t="inlineStr"/>
       <c r="L1257" t="n">
         <v>1</v>
       </c>
@@ -43027,15 +43053,11 @@
         <v>-57.27436365000005</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
-      <c r="K1258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1258" t="inlineStr"/>
       <c r="L1258" t="n">
         <v>1</v>
       </c>
@@ -43064,15 +43086,11 @@
         <v>-35.33556365000005</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1259" t="inlineStr"/>
       <c r="L1259" t="n">
         <v>1</v>
       </c>
@@ -43101,15 +43119,11 @@
         <v>-24.25236365000005</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
-      <c r="K1260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1260" t="inlineStr"/>
       <c r="L1260" t="n">
         <v>1</v>
       </c>
@@ -43138,15 +43152,11 @@
         <v>-36.67716365000005</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
-      <c r="K1261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1261" t="inlineStr"/>
       <c r="L1261" t="n">
         <v>1</v>
       </c>
@@ -43175,15 +43185,11 @@
         <v>-39.34930177000005</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
-      <c r="K1262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1262" t="inlineStr"/>
       <c r="L1262" t="n">
         <v>1</v>
       </c>
@@ -43212,15 +43218,11 @@
         <v>-37.37586874000004</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1263" t="inlineStr"/>
       <c r="L1263" t="n">
         <v>1</v>
       </c>
@@ -43249,15 +43251,11 @@
         <v>-37.37586874000004</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
-      <c r="K1264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1264" t="inlineStr"/>
       <c r="L1264" t="n">
         <v>1</v>
       </c>
@@ -43286,15 +43284,11 @@
         <v>-46.91796874000004</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
-      <c r="K1265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1265" t="inlineStr"/>
       <c r="L1265" t="n">
         <v>1</v>
       </c>
@@ -43323,15 +43317,11 @@
         <v>-51.52106874000004</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
-      <c r="K1266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1266" t="inlineStr"/>
       <c r="L1266" t="n">
         <v>1</v>
       </c>
@@ -43360,15 +43350,11 @@
         <v>-52.93798105000004</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
-      <c r="K1267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1267" t="inlineStr"/>
       <c r="L1267" t="n">
         <v>1</v>
       </c>
@@ -43397,15 +43383,11 @@
         <v>-51.28908105000004</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
-      <c r="K1268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1268" t="inlineStr"/>
       <c r="L1268" t="n">
         <v>1</v>
       </c>
@@ -43434,15 +43416,11 @@
         <v>-61.07428105000004</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1269" t="inlineStr"/>
       <c r="L1269" t="n">
         <v>1</v>
       </c>
@@ -43471,15 +43449,11 @@
         <v>-66.29848105000003</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
-      <c r="K1270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1270" t="inlineStr"/>
       <c r="L1270" t="n">
         <v>1</v>
       </c>
@@ -43508,15 +43482,11 @@
         <v>-75.20108105000003</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
-      <c r="K1271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="n">
         <v>1</v>
       </c>
@@ -43545,15 +43515,11 @@
         <v>-75.11238105000002</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
-      <c r="K1272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1272" t="inlineStr"/>
       <c r="L1272" t="n">
         <v>1</v>
       </c>
@@ -43582,15 +43548,11 @@
         <v>-79.01478105000002</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
-      <c r="K1273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1273" t="inlineStr"/>
       <c r="L1273" t="n">
         <v>1</v>
       </c>
@@ -43619,15 +43581,11 @@
         <v>-79.01478105000002</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
-      <c r="K1274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1274" t="inlineStr"/>
       <c r="L1274" t="n">
         <v>1</v>
       </c>
@@ -43656,15 +43614,11 @@
         <v>-67.14158105000003</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
-      <c r="K1275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1275" t="inlineStr"/>
       <c r="L1275" t="n">
         <v>1</v>
       </c>
@@ -43693,15 +43647,11 @@
         <v>-70.32349177000003</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
-      <c r="K1276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1276" t="inlineStr"/>
       <c r="L1276" t="n">
         <v>1</v>
       </c>
@@ -43730,15 +43680,11 @@
         <v>-74.05809177000003</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
-      <c r="K1277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1277" t="inlineStr"/>
       <c r="L1277" t="n">
         <v>1</v>
       </c>
@@ -43767,15 +43713,11 @@
         <v>-79.44093536000003</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
-      <c r="K1278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1278" t="inlineStr"/>
       <c r="L1278" t="n">
         <v>1</v>
       </c>
@@ -43804,15 +43746,11 @@
         <v>-85.03670010000002</v>
       </c>
       <c r="H1279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
-      <c r="K1279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1279" t="inlineStr"/>
       <c r="L1279" t="n">
         <v>1</v>
       </c>
@@ -43841,15 +43779,11 @@
         <v>-86.39320014000002</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1280" t="inlineStr"/>
       <c r="L1280" t="n">
         <v>1</v>
       </c>
@@ -43878,15 +43812,11 @@
         <v>-95.08348838000002</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
-      <c r="K1281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1281" t="inlineStr"/>
       <c r="L1281" t="n">
         <v>1</v>
       </c>
@@ -43915,15 +43845,11 @@
         <v>-97.88568838000002</v>
       </c>
       <c r="H1282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
-      <c r="K1282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1282" t="inlineStr"/>
       <c r="L1282" t="n">
         <v>1</v>
       </c>
@@ -43952,15 +43878,11 @@
         <v>-94.00087662000001</v>
       </c>
       <c r="H1283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
-      <c r="K1283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1283" t="inlineStr"/>
       <c r="L1283" t="n">
         <v>1</v>
       </c>
@@ -43989,15 +43911,11 @@
         <v>-99.26971086000002</v>
       </c>
       <c r="H1284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
-      <c r="K1284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1284" t="inlineStr"/>
       <c r="L1284" t="n">
         <v>1</v>
       </c>
@@ -44026,15 +43944,11 @@
         <v>-93.76773223000002</v>
       </c>
       <c r="H1285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
-      <c r="K1285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1285" t="inlineStr"/>
       <c r="L1285" t="n">
         <v>1</v>
       </c>
@@ -44063,15 +43977,11 @@
         <v>-89.60723223000002</v>
       </c>
       <c r="H1286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
-      <c r="K1286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1286" t="inlineStr"/>
       <c r="L1286" t="n">
         <v>1</v>
       </c>
@@ -44100,15 +44010,11 @@
         <v>-75.12423223000002</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
-      <c r="K1287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1287" t="inlineStr"/>
       <c r="L1287" t="n">
         <v>1</v>
       </c>
@@ -44137,15 +44043,11 @@
         <v>-48.76653223000002</v>
       </c>
       <c r="H1288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
-      <c r="K1288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1288" t="inlineStr"/>
       <c r="L1288" t="n">
         <v>1</v>
       </c>
@@ -44174,15 +44076,11 @@
         <v>-50.06425222000001</v>
       </c>
       <c r="H1289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
-      <c r="K1289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1289" t="inlineStr"/>
       <c r="L1289" t="n">
         <v>1</v>
       </c>
@@ -44211,15 +44109,11 @@
         <v>-54.52482657000002</v>
       </c>
       <c r="H1290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
-      <c r="K1290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1290" t="inlineStr"/>
       <c r="L1290" t="n">
         <v>1</v>
       </c>
@@ -44248,15 +44142,11 @@
         <v>-49.56154656000002</v>
       </c>
       <c r="H1291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
-      <c r="K1291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1291" t="inlineStr"/>
       <c r="L1291" t="n">
         <v>1</v>
       </c>
@@ -44285,15 +44175,11 @@
         <v>-57.48454656000002</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
-      <c r="K1292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1292" t="inlineStr"/>
       <c r="L1292" t="n">
         <v>1</v>
       </c>
@@ -44322,15 +44208,11 @@
         <v>-61.53348408000002</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
-      <c r="K1293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1293" t="inlineStr"/>
       <c r="L1293" t="n">
         <v>1</v>
       </c>
@@ -44359,15 +44241,11 @@
         <v>-66.97599933000002</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
-      <c r="K1294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1294" t="inlineStr"/>
       <c r="L1294" t="n">
         <v>1</v>
       </c>
@@ -44396,15 +44274,11 @@
         <v>-69.25139933000003</v>
       </c>
       <c r="H1295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
-      <c r="K1295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1295" t="inlineStr"/>
       <c r="L1295" t="n">
         <v>1</v>
       </c>
@@ -44433,15 +44307,11 @@
         <v>-64.11550488000003</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
-      <c r="K1296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1296" t="inlineStr"/>
       <c r="L1296" t="n">
         <v>1</v>
       </c>
@@ -44470,15 +44340,11 @@
         <v>-62.61920488000003</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
-      <c r="K1297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1297" t="inlineStr"/>
       <c r="L1297" t="n">
         <v>1</v>
       </c>
@@ -44507,15 +44373,11 @@
         <v>-54.62560488000003</v>
       </c>
       <c r="H1298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
-      <c r="K1298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1298" t="inlineStr"/>
       <c r="L1298" t="n">
         <v>1</v>
       </c>
@@ -44544,15 +44406,11 @@
         <v>-53.44250488000003</v>
       </c>
       <c r="H1299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
-      <c r="K1299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1299" t="inlineStr"/>
       <c r="L1299" t="n">
         <v>1</v>
       </c>
@@ -44581,15 +44439,11 @@
         <v>-53.44250488000003</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
-      <c r="K1300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1300" t="inlineStr"/>
       <c r="L1300" t="n">
         <v>1</v>
       </c>
@@ -44618,15 +44472,11 @@
         <v>-51.90077516000003</v>
       </c>
       <c r="H1301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
-      <c r="K1301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1301" t="inlineStr"/>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -44655,15 +44505,11 @@
         <v>-61.22711654000003</v>
       </c>
       <c r="H1302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1302" t="inlineStr"/>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -44692,15 +44538,11 @@
         <v>-66.50921654000004</v>
       </c>
       <c r="H1303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
-      <c r="K1303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1303" t="inlineStr"/>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -44729,15 +44571,11 @@
         <v>-69.14111656000004</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1304" t="inlineStr"/>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -44766,15 +44604,11 @@
         <v>-75.41567808000005</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1305" t="inlineStr"/>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -44803,15 +44637,11 @@
         <v>-70.99917808000005</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1306" t="inlineStr"/>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -44840,15 +44670,11 @@
         <v>-96.30340792000005</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1307" t="inlineStr"/>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -44877,15 +44703,11 @@
         <v>-98.47730787000006</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1308" t="inlineStr"/>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -44914,15 +44736,11 @@
         <v>-101.4534078700001</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1309" t="inlineStr"/>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -44951,15 +44769,11 @@
         <v>-103.8821078700001</v>
       </c>
       <c r="H1310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
-      <c r="K1310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1310" t="inlineStr"/>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -44988,15 +44802,11 @@
         <v>-106.9562078700001</v>
       </c>
       <c r="H1311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1311" t="inlineStr"/>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -45025,15 +44835,11 @@
         <v>-119.6189078700001</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
-      <c r="K1312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1312" t="inlineStr"/>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -45062,15 +44868,11 @@
         <v>-123.9382186900001</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
-      <c r="K1313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1313" t="inlineStr"/>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -45099,15 +44901,11 @@
         <v>-110.6324186900001</v>
       </c>
       <c r="H1314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
-      <c r="K1314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1314" t="inlineStr"/>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -45136,15 +44934,11 @@
         <v>-113.2135037500001</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
-      <c r="K1315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1315" t="inlineStr"/>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -45173,15 +44967,11 @@
         <v>-112.7220004300001</v>
       </c>
       <c r="H1316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
-      <c r="K1316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1316" t="inlineStr"/>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -45210,15 +45000,11 @@
         <v>-112.7220004300001</v>
       </c>
       <c r="H1317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
-      <c r="K1317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1317" t="inlineStr"/>
       <c r="L1317" t="n">
         <v>1</v>
       </c>
@@ -45247,15 +45033,11 @@
         <v>-112.7220004300001</v>
       </c>
       <c r="H1318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
-      <c r="K1318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1318" t="inlineStr"/>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -45284,15 +45066,11 @@
         <v>-143.4728909000001</v>
       </c>
       <c r="H1319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
-      <c r="K1319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1319" t="inlineStr"/>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
@@ -45321,15 +45099,11 @@
         <v>-154.9204909000001</v>
       </c>
       <c r="H1320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
-      <c r="K1320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1320" t="inlineStr"/>
       <c r="L1320" t="n">
         <v>1</v>
       </c>
@@ -45358,15 +45132,11 @@
         <v>-146.3037909000001</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
-      <c r="K1321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1321" t="inlineStr"/>
       <c r="L1321" t="n">
         <v>1</v>
       </c>
@@ -45395,15 +45165,11 @@
         <v>-132.5573930400001</v>
       </c>
       <c r="H1322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
-      <c r="K1322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1322" t="inlineStr"/>
       <c r="L1322" t="n">
         <v>1</v>
       </c>
@@ -45432,15 +45198,11 @@
         <v>-150.0395390500001</v>
       </c>
       <c r="H1323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
-      <c r="K1323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1323" t="inlineStr"/>
       <c r="L1323" t="n">
         <v>1</v>
       </c>
@@ -45469,15 +45231,11 @@
         <v>-176.4219642200001</v>
       </c>
       <c r="H1324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
-      <c r="K1324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1324" t="inlineStr"/>
       <c r="L1324" t="n">
         <v>1</v>
       </c>
@@ -45506,15 +45264,11 @@
         <v>-169.6347397800001</v>
       </c>
       <c r="H1325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
-      <c r="K1325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1325" t="inlineStr"/>
       <c r="L1325" t="n">
         <v>1</v>
       </c>
@@ -45543,15 +45297,11 @@
         <v>-160.8201302700001</v>
       </c>
       <c r="H1326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
-      <c r="K1326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1326" t="inlineStr"/>
       <c r="L1326" t="n">
         <v>1</v>
       </c>
@@ -45580,15 +45330,11 @@
         <v>-151.4099302700001</v>
       </c>
       <c r="H1327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
-      <c r="K1327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1327" t="inlineStr"/>
       <c r="L1327" t="n">
         <v>1</v>
       </c>
@@ -45617,15 +45363,11 @@
         <v>-139.6730190600001</v>
       </c>
       <c r="H1328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
-      <c r="K1328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1328" t="inlineStr"/>
       <c r="L1328" t="n">
         <v>1</v>
       </c>
@@ -45654,15 +45396,11 @@
         <v>-136.0707155400001</v>
       </c>
       <c r="H1329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
-      <c r="K1329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1329" t="inlineStr"/>
       <c r="L1329" t="n">
         <v>1</v>
       </c>
@@ -45691,15 +45429,11 @@
         <v>-133.5096682800001</v>
       </c>
       <c r="H1330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
-      <c r="K1330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1330" t="inlineStr"/>
       <c r="L1330" t="n">
         <v>1</v>
       </c>
@@ -45728,15 +45462,11 @@
         <v>-114.4452135200001</v>
       </c>
       <c r="H1331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
-      <c r="K1331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1331" t="inlineStr"/>
       <c r="L1331" t="n">
         <v>1</v>
       </c>
@@ -45765,15 +45495,11 @@
         <v>-111.4203781000001</v>
       </c>
       <c r="H1332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
-      <c r="K1332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1332" t="inlineStr"/>
       <c r="L1332" t="n">
         <v>1</v>
       </c>
@@ -45802,15 +45528,11 @@
         <v>-108.2073781000001</v>
       </c>
       <c r="H1333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
-      <c r="K1333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1333" t="inlineStr"/>
       <c r="L1333" t="n">
         <v>1</v>
       </c>
@@ -45839,15 +45561,11 @@
         <v>-122.5990082200001</v>
       </c>
       <c r="H1334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
-      <c r="K1334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1334" t="inlineStr"/>
       <c r="L1334" t="n">
         <v>1</v>
       </c>
@@ -45876,15 +45594,11 @@
         <v>-121.0530082200001</v>
       </c>
       <c r="H1335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
-      <c r="K1335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1335" t="inlineStr"/>
       <c r="L1335" t="n">
         <v>1</v>
       </c>
@@ -45917,11 +45631,7 @@
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
-      <c r="K1336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1336" t="inlineStr"/>
       <c r="L1336" t="n">
         <v>1</v>
       </c>
@@ -45954,11 +45664,7 @@
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
-      <c r="K1337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1337" t="inlineStr"/>
       <c r="L1337" t="n">
         <v>1</v>
       </c>
@@ -45991,11 +45697,7 @@
       </c>
       <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
-      <c r="K1338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1338" t="inlineStr"/>
       <c r="L1338" t="n">
         <v>1</v>
       </c>
@@ -46028,11 +45730,7 @@
       </c>
       <c r="I1339" t="inlineStr"/>
       <c r="J1339" t="inlineStr"/>
-      <c r="K1339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1339" t="inlineStr"/>
       <c r="L1339" t="n">
         <v>1</v>
       </c>
@@ -46065,11 +45763,7 @@
       </c>
       <c r="I1340" t="inlineStr"/>
       <c r="J1340" t="inlineStr"/>
-      <c r="K1340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1340" t="inlineStr"/>
       <c r="L1340" t="n">
         <v>1</v>
       </c>
@@ -46102,11 +45796,7 @@
       </c>
       <c r="I1341" t="inlineStr"/>
       <c r="J1341" t="inlineStr"/>
-      <c r="K1341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1341" t="inlineStr"/>
       <c r="L1341" t="n">
         <v>1</v>
       </c>
@@ -46135,15 +45825,11 @@
         <v>-133.3113052800001</v>
       </c>
       <c r="H1342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1342" t="inlineStr"/>
       <c r="J1342" t="inlineStr"/>
-      <c r="K1342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1342" t="inlineStr"/>
       <c r="L1342" t="n">
         <v>1</v>
       </c>
@@ -46176,11 +45862,7 @@
       </c>
       <c r="I1343" t="inlineStr"/>
       <c r="J1343" t="inlineStr"/>
-      <c r="K1343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1343" t="inlineStr"/>
       <c r="L1343" t="n">
         <v>1</v>
       </c>
@@ -46213,11 +45895,7 @@
       </c>
       <c r="I1344" t="inlineStr"/>
       <c r="J1344" t="inlineStr"/>
-      <c r="K1344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1344" t="inlineStr"/>
       <c r="L1344" t="n">
         <v>1</v>
       </c>
@@ -46250,11 +45928,7 @@
       </c>
       <c r="I1345" t="inlineStr"/>
       <c r="J1345" t="inlineStr"/>
-      <c r="K1345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1345" t="inlineStr"/>
       <c r="L1345" t="n">
         <v>1</v>
       </c>
@@ -46287,11 +45961,7 @@
       </c>
       <c r="I1346" t="inlineStr"/>
       <c r="J1346" t="inlineStr"/>
-      <c r="K1346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1346" t="inlineStr"/>
       <c r="L1346" t="n">
         <v>1</v>
       </c>
@@ -46324,11 +45994,7 @@
       </c>
       <c r="I1347" t="inlineStr"/>
       <c r="J1347" t="inlineStr"/>
-      <c r="K1347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1347" t="inlineStr"/>
       <c r="L1347" t="n">
         <v>1</v>
       </c>
@@ -46361,11 +46027,7 @@
       </c>
       <c r="I1348" t="inlineStr"/>
       <c r="J1348" t="inlineStr"/>
-      <c r="K1348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1348" t="inlineStr"/>
       <c r="L1348" t="n">
         <v>1</v>
       </c>
@@ -46398,17 +46060,13 @@
       </c>
       <c r="I1349" t="inlineStr"/>
       <c r="J1349" t="inlineStr"/>
-      <c r="K1349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1349" t="inlineStr"/>
       <c r="L1349" t="n">
         <v>1</v>
       </c>
       <c r="M1349" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest BTC.xlsx
+++ b/BackTest/2020-01-11 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16.69745307</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-14.79999378</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-14.79999378</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-14.79999378</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-14.79999378</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-12.70747924</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-12.50677924</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-14.51037924</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-18.17797924</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-18.71811157</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-22.58860271</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-21.2794776</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-30.8431776</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-39.6490776</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-37.5944776</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-42.3240776</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-42.3240776</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-41.65107759999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-41.65107759999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-44.3788776</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-45.77397889</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-47.72757889</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-54.92711222</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-57.13018874</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-63.79588874</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-82.80578874</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-79.25445289999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-83.97695289999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-80.61375289999998</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-84.31175289999997</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-99.07685289999998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-90.85735289999998</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-92.93628771999998</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-84.39658771999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-32.15709316999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-36.58429316999999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-19.77117607000002</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-21.35637607000002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-21.30147607000002</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-22.23697607000003</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-22.28297607000003</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-22.37827607000003</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-23.12607607000003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-17.55306059000003</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-13.47386059000003</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-13.47386059000003</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-13.41626059000003</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-13.47626059000003</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>7.575627379999976</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>13.75812737999998</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>7.282058229999976</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>7.317702709999976</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>7.342602709999976</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>7.263102709999975</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>8.573002709999976</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>9.552302709999976</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>9.641302709999977</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>9.698702709999976</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>6.300202709999976</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>6.294902709999976</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>7.340802709999975</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>9.654680429999974</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>9.717480429999974</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>9.600580429999974</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>4.788409949999973</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>5.864009949999972</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>22.52620994999997</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>36.06511223999997</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>50.84457799999997</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>62.82397799999997</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>53.41353198999997</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>58.65768116999997</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>59.24478110999997</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>61.43278121999997</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>75.02018121999997</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>81.82008121999996</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>73.37296063999996</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>64.53276063999996</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>63.49996063999996</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>62.11306063999996</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>58.62706063999997</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>47.49346063999997</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>45.30276063999997</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>45.06066063999997</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>48.14419007999997</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>31.03102021999996</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>30.54242021999996</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>31.42922021999996</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>30.36832024999996</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-35.70347950000004</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-40.32317999000004</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-38.55107999000004</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-37.08877999000004</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-35.10757999000004</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-38.66847999000004</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-41.39983697000004</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-61.68753697000004</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-55.77326855000004</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-58.50736855000004</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-83.32786855000003</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-93.20916855000003</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-83.02206855000003</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-80.95436855000003</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-77.82846855000003</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-83.94606855000002</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-86.06226855000003</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-81.94662316000003</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-82.21830963000004</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-77.07170963000003</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-92.98588915000003</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-90.92048915000004</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-91.18758915000004</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-90.91938915000004</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-85.56908915000004</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-85.77518915000005</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-86.77818915000005</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-73.49499707000005</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-73.51189707000006</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-73.46650035000006</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-73.30349707000006</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-73.12769707000007</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-73.37779707000007</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-73.83899707000008</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-72.47169707000008</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-65.30789707000008</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-65.07833363000007</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-65.08983363000007</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-64.04433363000007</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-64.12703363000007</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-64.18853363000007</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-64.69873363000006</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-64.69873363000006</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-57.33233363000006</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-80.87290022000008</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-76.38680022000008</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-74.79852837000008</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-67.25424468000006</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -32923,984 +32923,842 @@
         <v>-381.17804441</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
-      </c>
-      <c r="I986" t="n">
-        <v>8787000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="n">
+        <v>1</v>
+      </c>
+      <c r="M986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" t="n">
+        <v>8786000</v>
+      </c>
+      <c r="C987" t="n">
+        <v>8776000</v>
+      </c>
+      <c r="D987" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="E987" t="n">
+        <v>8776000</v>
+      </c>
+      <c r="F987" t="n">
+        <v>11.625</v>
+      </c>
+      <c r="G987" t="n">
+        <v>-392.80304441</v>
+      </c>
+      <c r="H987" t="n">
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="n">
+        <v>1</v>
+      </c>
+      <c r="M987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" t="n">
+        <v>8775000</v>
+      </c>
+      <c r="C988" t="n">
+        <v>8785000</v>
+      </c>
+      <c r="D988" t="n">
+        <v>8786000</v>
+      </c>
+      <c r="E988" t="n">
+        <v>8769000</v>
+      </c>
+      <c r="F988" t="n">
+        <v>5.03333497</v>
+      </c>
+      <c r="G988" t="n">
+        <v>-387.76970944</v>
+      </c>
+      <c r="H988" t="n">
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
+      <c r="L988" t="n">
+        <v>1</v>
+      </c>
+      <c r="M988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" t="n">
+        <v>8777000</v>
+      </c>
+      <c r="C989" t="n">
+        <v>8785000</v>
+      </c>
+      <c r="D989" t="n">
+        <v>8785000</v>
+      </c>
+      <c r="E989" t="n">
+        <v>8776000</v>
+      </c>
+      <c r="F989" t="n">
+        <v>3.3753</v>
+      </c>
+      <c r="G989" t="n">
+        <v>-387.76970944</v>
+      </c>
+      <c r="H989" t="n">
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="n">
+        <v>1</v>
+      </c>
+      <c r="M989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="C990" t="n">
+        <v>8785000</v>
+      </c>
+      <c r="D990" t="n">
+        <v>8789000</v>
+      </c>
+      <c r="E990" t="n">
+        <v>8785000</v>
+      </c>
+      <c r="F990" t="n">
+        <v>1.6566251</v>
+      </c>
+      <c r="G990" t="n">
+        <v>-387.76970944</v>
+      </c>
+      <c r="H990" t="n">
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
+      <c r="L990" t="n">
+        <v>1</v>
+      </c>
+      <c r="M990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="n">
+        <v>8785000</v>
+      </c>
+      <c r="C991" t="n">
+        <v>8791000</v>
+      </c>
+      <c r="D991" t="n">
+        <v>8791000</v>
+      </c>
+      <c r="E991" t="n">
+        <v>8784000</v>
+      </c>
+      <c r="F991" t="n">
+        <v>12.67436643</v>
+      </c>
+      <c r="G991" t="n">
+        <v>-375.09534301</v>
+      </c>
+      <c r="H991" t="n">
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
+      <c r="L991" t="n">
+        <v>1</v>
+      </c>
+      <c r="M991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="n">
+        <v>8794000</v>
+      </c>
+      <c r="C992" t="n">
+        <v>8792000</v>
+      </c>
+      <c r="D992" t="n">
+        <v>8799000</v>
+      </c>
+      <c r="E992" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="F992" t="n">
+        <v>3.53248929</v>
+      </c>
+      <c r="G992" t="n">
+        <v>-371.56285372</v>
+      </c>
+      <c r="H992" t="n">
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
+      <c r="L992" t="n">
+        <v>1</v>
+      </c>
+      <c r="M992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" t="n">
+        <v>8791000</v>
+      </c>
+      <c r="C993" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="D993" t="n">
+        <v>8793000</v>
+      </c>
+      <c r="E993" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="F993" t="n">
+        <v>1.66932785</v>
+      </c>
+      <c r="G993" t="n">
+        <v>-373.23218157</v>
+      </c>
+      <c r="H993" t="n">
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
+      <c r="L993" t="n">
+        <v>1</v>
+      </c>
+      <c r="M993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" t="n">
+        <v>8793000</v>
+      </c>
+      <c r="C994" t="n">
+        <v>8792000</v>
+      </c>
+      <c r="D994" t="n">
+        <v>8799000</v>
+      </c>
+      <c r="E994" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="F994" t="n">
+        <v>6.71774831</v>
+      </c>
+      <c r="G994" t="n">
+        <v>-366.51443326</v>
+      </c>
+      <c r="H994" t="n">
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
+      <c r="L994" t="n">
+        <v>1</v>
+      </c>
+      <c r="M994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" t="n">
+        <v>8797000</v>
+      </c>
+      <c r="C995" t="n">
+        <v>8797000</v>
+      </c>
+      <c r="D995" t="n">
+        <v>8797000</v>
+      </c>
+      <c r="E995" t="n">
+        <v>8797000</v>
+      </c>
+      <c r="F995" t="n">
+        <v>0.00034</v>
+      </c>
+      <c r="G995" t="n">
+        <v>-366.51409326</v>
+      </c>
+      <c r="H995" t="n">
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="n">
+        <v>1</v>
+      </c>
+      <c r="M995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="n">
+        <v>8794000</v>
+      </c>
+      <c r="C996" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="D996" t="n">
+        <v>8794000</v>
+      </c>
+      <c r="E996" t="n">
+        <v>8784000</v>
+      </c>
+      <c r="F996" t="n">
+        <v>0.1118</v>
+      </c>
+      <c r="G996" t="n">
+        <v>-366.6258932600001</v>
+      </c>
+      <c r="H996" t="n">
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="n">
+        <v>1</v>
+      </c>
+      <c r="M996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="n">
+        <v>8790000</v>
+      </c>
+      <c r="C997" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="D997" t="n">
+        <v>8790000</v>
+      </c>
+      <c r="E997" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="F997" t="n">
+        <v>1.0427</v>
+      </c>
+      <c r="G997" t="n">
+        <v>-366.6258932600001</v>
+      </c>
+      <c r="H997" t="n">
+        <v>0</v>
+      </c>
+      <c r="I997" t="inlineStr"/>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="n">
+        <v>1</v>
+      </c>
+      <c r="M997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="C998" t="n">
+        <v>8785000</v>
+      </c>
+      <c r="D998" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="E998" t="n">
+        <v>8785000</v>
+      </c>
+      <c r="F998" t="n">
+        <v>1.6426</v>
+      </c>
+      <c r="G998" t="n">
+        <v>-368.2684932600001</v>
+      </c>
+      <c r="H998" t="n">
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
+      <c r="L998" t="n">
+        <v>1</v>
+      </c>
+      <c r="M998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" t="n">
+        <v>8785000</v>
+      </c>
+      <c r="C999" t="n">
+        <v>8785000</v>
+      </c>
+      <c r="D999" t="n">
+        <v>8789000</v>
+      </c>
+      <c r="E999" t="n">
+        <v>8785000</v>
+      </c>
+      <c r="F999" t="n">
+        <v>0.94443235</v>
+      </c>
+      <c r="G999" t="n">
+        <v>-368.2684932600001</v>
+      </c>
+      <c r="H999" t="n">
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
+      <c r="L999" t="n">
+        <v>1</v>
+      </c>
+      <c r="M999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>8786000</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>8784000</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>8790000</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>8784000</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>4.4869</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>-372.7553932600001</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1000" t="inlineStr"/>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
+      <c r="L1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>8784000</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>8783000</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>8784000</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>8781000</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>0.5839</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>-373.3392932600001</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1001" t="inlineStr"/>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
+      <c r="L1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>8784000</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>8780000</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>8784000</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>8778000</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>0.6158</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>-373.9550932600001</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
+      <c r="L1002" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>8779000</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>8774000</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>8783000</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>8773000</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>-378.30709326</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>8774000</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>8780000</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>8780000</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>8771000</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>4.7127</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>-373.5943932600001</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
+      <c r="L1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>8777000</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>8767000</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>8778000</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>8767000</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>3.3252</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>-376.9195932600001</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>8767000</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>8767000</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>8769000</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>8762000</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>8.6799</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>-376.9195932600001</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
+      <c r="L1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>8767000</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>8763000</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>8767000</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>8761000</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>5.906</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>-382.8255932600001</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
+      <c r="L1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>8761000</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>8761000</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>8764000</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>8761000</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>4.1226</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>-386.94819326</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
+      <c r="L1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>8763000</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>8755000</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>8764000</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>8754000</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>20.79532348</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>-407.74351674</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>8756000</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>8756000</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>8763000</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>8754000</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>2.52870756</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>-405.21480918</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
+      <c r="L1010" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>8756000</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>8754000</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>8759000</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>8750000</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>14.56316008</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>-419.77796926</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>8756000</v>
+      </c>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L986" t="n">
-        <v>1</v>
-      </c>
-      <c r="M986" t="inlineStr"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="1" t="n">
-        <v>985</v>
-      </c>
-      <c r="B987" t="n">
-        <v>8786000</v>
-      </c>
-      <c r="C987" t="n">
-        <v>8776000</v>
-      </c>
-      <c r="D987" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="E987" t="n">
-        <v>8776000</v>
-      </c>
-      <c r="F987" t="n">
-        <v>11.625</v>
-      </c>
-      <c r="G987" t="n">
-        <v>-392.80304441</v>
-      </c>
-      <c r="H987" t="n">
-        <v>1</v>
-      </c>
-      <c r="I987" t="n">
-        <v>8786000</v>
-      </c>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L987" t="n">
-        <v>1</v>
-      </c>
-      <c r="M987" t="inlineStr"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="1" t="n">
-        <v>986</v>
-      </c>
-      <c r="B988" t="n">
-        <v>8775000</v>
-      </c>
-      <c r="C988" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="D988" t="n">
-        <v>8786000</v>
-      </c>
-      <c r="E988" t="n">
-        <v>8769000</v>
-      </c>
-      <c r="F988" t="n">
-        <v>5.03333497</v>
-      </c>
-      <c r="G988" t="n">
-        <v>-387.76970944</v>
-      </c>
-      <c r="H988" t="n">
-        <v>1</v>
-      </c>
-      <c r="I988" t="n">
-        <v>8776000</v>
-      </c>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L988" t="n">
-        <v>1</v>
-      </c>
-      <c r="M988" t="inlineStr"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="1" t="n">
-        <v>987</v>
-      </c>
-      <c r="B989" t="n">
-        <v>8777000</v>
-      </c>
-      <c r="C989" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="D989" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="E989" t="n">
-        <v>8776000</v>
-      </c>
-      <c r="F989" t="n">
-        <v>3.3753</v>
-      </c>
-      <c r="G989" t="n">
-        <v>-387.76970944</v>
-      </c>
-      <c r="H989" t="n">
-        <v>1</v>
-      </c>
-      <c r="I989" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L989" t="n">
-        <v>1</v>
-      </c>
-      <c r="M989" t="inlineStr"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>988</v>
-      </c>
-      <c r="B990" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="C990" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="D990" t="n">
-        <v>8789000</v>
-      </c>
-      <c r="E990" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="F990" t="n">
-        <v>1.6566251</v>
-      </c>
-      <c r="G990" t="n">
-        <v>-387.76970944</v>
-      </c>
-      <c r="H990" t="n">
-        <v>1</v>
-      </c>
-      <c r="I990" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L990" t="n">
-        <v>1</v>
-      </c>
-      <c r="M990" t="inlineStr"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>989</v>
-      </c>
-      <c r="B991" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="C991" t="n">
-        <v>8791000</v>
-      </c>
-      <c r="D991" t="n">
-        <v>8791000</v>
-      </c>
-      <c r="E991" t="n">
-        <v>8784000</v>
-      </c>
-      <c r="F991" t="n">
-        <v>12.67436643</v>
-      </c>
-      <c r="G991" t="n">
-        <v>-375.09534301</v>
-      </c>
-      <c r="H991" t="n">
-        <v>1</v>
-      </c>
-      <c r="I991" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L991" t="n">
-        <v>1</v>
-      </c>
-      <c r="M991" t="inlineStr"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="1" t="n">
-        <v>990</v>
-      </c>
-      <c r="B992" t="n">
-        <v>8794000</v>
-      </c>
-      <c r="C992" t="n">
-        <v>8792000</v>
-      </c>
-      <c r="D992" t="n">
-        <v>8799000</v>
-      </c>
-      <c r="E992" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="F992" t="n">
-        <v>3.53248929</v>
-      </c>
-      <c r="G992" t="n">
-        <v>-371.56285372</v>
-      </c>
-      <c r="H992" t="n">
-        <v>1</v>
-      </c>
-      <c r="I992" t="n">
-        <v>8791000</v>
-      </c>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L992" t="n">
-        <v>1</v>
-      </c>
-      <c r="M992" t="inlineStr"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="1" t="n">
-        <v>991</v>
-      </c>
-      <c r="B993" t="n">
-        <v>8791000</v>
-      </c>
-      <c r="C993" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="D993" t="n">
-        <v>8793000</v>
-      </c>
-      <c r="E993" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="F993" t="n">
-        <v>1.66932785</v>
-      </c>
-      <c r="G993" t="n">
-        <v>-373.23218157</v>
-      </c>
-      <c r="H993" t="n">
-        <v>1</v>
-      </c>
-      <c r="I993" t="n">
-        <v>8792000</v>
-      </c>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L993" t="n">
-        <v>1</v>
-      </c>
-      <c r="M993" t="inlineStr"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="1" t="n">
-        <v>992</v>
-      </c>
-      <c r="B994" t="n">
-        <v>8793000</v>
-      </c>
-      <c r="C994" t="n">
-        <v>8792000</v>
-      </c>
-      <c r="D994" t="n">
-        <v>8799000</v>
-      </c>
-      <c r="E994" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="F994" t="n">
-        <v>6.71774831</v>
-      </c>
-      <c r="G994" t="n">
-        <v>-366.51443326</v>
-      </c>
-      <c r="H994" t="n">
-        <v>1</v>
-      </c>
-      <c r="I994" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L994" t="n">
-        <v>1</v>
-      </c>
-      <c r="M994" t="inlineStr"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="1" t="n">
-        <v>993</v>
-      </c>
-      <c r="B995" t="n">
-        <v>8797000</v>
-      </c>
-      <c r="C995" t="n">
-        <v>8797000</v>
-      </c>
-      <c r="D995" t="n">
-        <v>8797000</v>
-      </c>
-      <c r="E995" t="n">
-        <v>8797000</v>
-      </c>
-      <c r="F995" t="n">
-        <v>0.00034</v>
-      </c>
-      <c r="G995" t="n">
-        <v>-366.51409326</v>
-      </c>
-      <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L995" t="n">
-        <v>1</v>
-      </c>
-      <c r="M995" t="inlineStr"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="1" t="n">
-        <v>994</v>
-      </c>
-      <c r="B996" t="n">
-        <v>8794000</v>
-      </c>
-      <c r="C996" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="D996" t="n">
-        <v>8794000</v>
-      </c>
-      <c r="E996" t="n">
-        <v>8784000</v>
-      </c>
-      <c r="F996" t="n">
-        <v>0.1118</v>
-      </c>
-      <c r="G996" t="n">
-        <v>-366.6258932600001</v>
-      </c>
-      <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L996" t="n">
-        <v>1</v>
-      </c>
-      <c r="M996" t="inlineStr"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="1" t="n">
-        <v>995</v>
-      </c>
-      <c r="B997" t="n">
-        <v>8790000</v>
-      </c>
-      <c r="C997" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="D997" t="n">
-        <v>8790000</v>
-      </c>
-      <c r="E997" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="F997" t="n">
-        <v>1.0427</v>
-      </c>
-      <c r="G997" t="n">
-        <v>-366.6258932600001</v>
-      </c>
-      <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L997" t="n">
-        <v>1</v>
-      </c>
-      <c r="M997" t="inlineStr"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="1" t="n">
-        <v>996</v>
-      </c>
-      <c r="B998" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="C998" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="D998" t="n">
-        <v>8788000</v>
-      </c>
-      <c r="E998" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="F998" t="n">
-        <v>1.6426</v>
-      </c>
-      <c r="G998" t="n">
-        <v>-368.2684932600001</v>
-      </c>
-      <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L998" t="n">
-        <v>1</v>
-      </c>
-      <c r="M998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="1" t="n">
-        <v>997</v>
-      </c>
-      <c r="B999" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="C999" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="D999" t="n">
-        <v>8789000</v>
-      </c>
-      <c r="E999" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="F999" t="n">
-        <v>0.94443235</v>
-      </c>
-      <c r="G999" t="n">
-        <v>-368.2684932600001</v>
-      </c>
-      <c r="H999" t="n">
-        <v>1</v>
-      </c>
-      <c r="I999" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L999" t="n">
-        <v>1</v>
-      </c>
-      <c r="M999" t="inlineStr"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="1" t="n">
-        <v>998</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>8786000</v>
-      </c>
-      <c r="C1000" t="n">
-        <v>8784000</v>
-      </c>
-      <c r="D1000" t="n">
-        <v>8790000</v>
-      </c>
-      <c r="E1000" t="n">
-        <v>8784000</v>
-      </c>
-      <c r="F1000" t="n">
-        <v>4.4869</v>
-      </c>
-      <c r="G1000" t="n">
-        <v>-372.7553932600001</v>
-      </c>
-      <c r="H1000" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1000" t="n">
-        <v>8785000</v>
-      </c>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1000" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1000" t="inlineStr"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>8784000</v>
-      </c>
-      <c r="C1001" t="n">
-        <v>8783000</v>
-      </c>
-      <c r="D1001" t="n">
-        <v>8784000</v>
-      </c>
-      <c r="E1001" t="n">
-        <v>8781000</v>
-      </c>
-      <c r="F1001" t="n">
-        <v>0.5839</v>
-      </c>
-      <c r="G1001" t="n">
-        <v>-373.3392932600001</v>
-      </c>
-      <c r="H1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1001" t="n">
-        <v>8784000</v>
-      </c>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1001" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1001" t="inlineStr"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>8784000</v>
-      </c>
-      <c r="C1002" t="n">
-        <v>8780000</v>
-      </c>
-      <c r="D1002" t="n">
-        <v>8784000</v>
-      </c>
-      <c r="E1002" t="n">
-        <v>8778000</v>
-      </c>
-      <c r="F1002" t="n">
-        <v>0.6158</v>
-      </c>
-      <c r="G1002" t="n">
-        <v>-373.9550932600001</v>
-      </c>
-      <c r="H1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1002" t="n">
-        <v>8783000</v>
-      </c>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1002" t="inlineStr"/>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>8779000</v>
-      </c>
-      <c r="C1003" t="n">
-        <v>8774000</v>
-      </c>
-      <c r="D1003" t="n">
-        <v>8783000</v>
-      </c>
-      <c r="E1003" t="n">
-        <v>8773000</v>
-      </c>
-      <c r="F1003" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="G1003" t="n">
-        <v>-378.30709326</v>
-      </c>
-      <c r="H1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1003" t="n">
-        <v>8780000</v>
-      </c>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1003" t="inlineStr"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="1" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>8774000</v>
-      </c>
-      <c r="C1004" t="n">
-        <v>8780000</v>
-      </c>
-      <c r="D1004" t="n">
-        <v>8780000</v>
-      </c>
-      <c r="E1004" t="n">
-        <v>8771000</v>
-      </c>
-      <c r="F1004" t="n">
-        <v>4.7127</v>
-      </c>
-      <c r="G1004" t="n">
-        <v>-373.5943932600001</v>
-      </c>
-      <c r="H1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1004" t="n">
-        <v>8774000</v>
-      </c>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1004" t="inlineStr"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="1" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>8777000</v>
-      </c>
-      <c r="C1005" t="n">
-        <v>8767000</v>
-      </c>
-      <c r="D1005" t="n">
-        <v>8778000</v>
-      </c>
-      <c r="E1005" t="n">
-        <v>8767000</v>
-      </c>
-      <c r="F1005" t="n">
-        <v>3.3252</v>
-      </c>
-      <c r="G1005" t="n">
-        <v>-376.9195932600001</v>
-      </c>
-      <c r="H1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1005" t="n">
-        <v>8780000</v>
-      </c>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1005" t="inlineStr"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>8767000</v>
-      </c>
-      <c r="C1006" t="n">
-        <v>8767000</v>
-      </c>
-      <c r="D1006" t="n">
-        <v>8769000</v>
-      </c>
-      <c r="E1006" t="n">
-        <v>8762000</v>
-      </c>
-      <c r="F1006" t="n">
-        <v>8.6799</v>
-      </c>
-      <c r="G1006" t="n">
-        <v>-376.9195932600001</v>
-      </c>
-      <c r="H1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1006" t="n">
-        <v>8767000</v>
-      </c>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1006" t="inlineStr"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>8767000</v>
-      </c>
-      <c r="C1007" t="n">
-        <v>8763000</v>
-      </c>
-      <c r="D1007" t="n">
-        <v>8767000</v>
-      </c>
-      <c r="E1007" t="n">
-        <v>8761000</v>
-      </c>
-      <c r="F1007" t="n">
-        <v>5.906</v>
-      </c>
-      <c r="G1007" t="n">
-        <v>-382.8255932600001</v>
-      </c>
-      <c r="H1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1007" t="n">
-        <v>8767000</v>
-      </c>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1007" t="inlineStr"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>8761000</v>
-      </c>
-      <c r="C1008" t="n">
-        <v>8761000</v>
-      </c>
-      <c r="D1008" t="n">
-        <v>8764000</v>
-      </c>
-      <c r="E1008" t="n">
-        <v>8761000</v>
-      </c>
-      <c r="F1008" t="n">
-        <v>4.1226</v>
-      </c>
-      <c r="G1008" t="n">
-        <v>-386.94819326</v>
-      </c>
-      <c r="H1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1008" t="n">
-        <v>8763000</v>
-      </c>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1008" t="inlineStr"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>8763000</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>8755000</v>
-      </c>
-      <c r="D1009" t="n">
-        <v>8764000</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>8754000</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>20.79532348</v>
-      </c>
-      <c r="G1009" t="n">
-        <v>-407.74351674</v>
-      </c>
-      <c r="H1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1009" t="n">
-        <v>8761000</v>
-      </c>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1009" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1009" t="inlineStr"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>8756000</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>8756000</v>
-      </c>
-      <c r="D1010" t="n">
-        <v>8763000</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>8754000</v>
-      </c>
-      <c r="F1010" t="n">
-        <v>2.52870756</v>
-      </c>
-      <c r="G1010" t="n">
-        <v>-405.21480918</v>
-      </c>
-      <c r="H1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1010" t="n">
-        <v>8755000</v>
-      </c>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1010" t="inlineStr"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>8756000</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>8754000</v>
-      </c>
-      <c r="D1011" t="n">
-        <v>8759000</v>
-      </c>
-      <c r="E1011" t="n">
-        <v>8750000</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>14.56316008</v>
-      </c>
-      <c r="G1011" t="n">
-        <v>-419.77796926</v>
-      </c>
-      <c r="H1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1011" t="n">
-        <v>8756000</v>
-      </c>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33929,9 +33787,11 @@
         <v>-400.34419705</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>8754000</v>
+      </c>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
@@ -33966,11 +33826,9 @@
         <v>-390.3826022600001</v>
       </c>
       <c r="H1013" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1013" t="n">
-        <v>8769000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
@@ -34005,11 +33863,9 @@
         <v>-390.1635618000001</v>
       </c>
       <c r="H1014" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1014" t="n">
-        <v>8782000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
@@ -34044,11 +33900,9 @@
         <v>-394.8049186900001</v>
       </c>
       <c r="H1015" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1015" t="n">
-        <v>8785000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
@@ -34083,11 +33937,9 @@
         <v>-394.8049186900001</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1016" t="n">
-        <v>8783000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
@@ -34122,11 +33974,9 @@
         <v>-399.6906186900001</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1017" t="n">
-        <v>8783000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
@@ -34161,11 +34011,9 @@
         <v>-409.7673186900001</v>
       </c>
       <c r="H1018" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1018" t="n">
-        <v>8780000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
@@ -34200,11 +34048,9 @@
         <v>-409.7673186900001</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1019" t="n">
-        <v>8771000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
@@ -34239,11 +34085,9 @@
         <v>-401.7037186900001</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1020" t="n">
-        <v>8771000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
@@ -34352,11 +34196,9 @@
         <v>-403.6576779600001</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1023" t="n">
-        <v>8769000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
@@ -34391,11 +34233,9 @@
         <v>-403.9103189300001</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1024" t="n">
-        <v>8771000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
@@ -34430,11 +34270,9 @@
         <v>-396.8951189300001</v>
       </c>
       <c r="H1025" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1025" t="n">
-        <v>8770000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
@@ -34543,9 +34381,11 @@
         <v>-398.0541081100001</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>8772000</v>
+      </c>
       <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
@@ -34580,9 +34420,11 @@
         <v>-396.0462081100001</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>8769000</v>
+      </c>
       <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
@@ -34617,9 +34459,11 @@
         <v>-400.6946171200001</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1030" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>8770000</v>
+      </c>
       <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
@@ -34654,9 +34498,11 @@
         <v>-395.8955171200001</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1031" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>8766000</v>
+      </c>
       <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
@@ -35042,11 +34888,9 @@
         <v>-363.5444933900001</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1041" t="n">
-        <v>8795000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
@@ -38931,18 +38775,16 @@
         <v>-239.20475893</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L1146" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1146" t="inlineStr"/>
       <c r="M1146" t="inlineStr"/>
     </row>
     <row r="1147">
@@ -38968,15 +38810,11 @@
         <v>-239.20475893</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1147" t="inlineStr"/>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -39005,15 +38843,11 @@
         <v>-231.24245893</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1148" t="inlineStr"/>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -39042,15 +38876,11 @@
         <v>-245.48062266</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1149" t="inlineStr"/>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -39079,15 +38909,11 @@
         <v>-236.62032266</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1150" t="inlineStr"/>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -39116,15 +38942,11 @@
         <v>-219.59332402</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1151" t="inlineStr"/>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -39153,15 +38975,11 @@
         <v>-228.62602431</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1152" t="inlineStr"/>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39194,11 +39012,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1153" t="inlineStr"/>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39227,15 +39041,11 @@
         <v>-227.19583241</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1154" t="inlineStr"/>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39268,11 +39078,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1155" t="inlineStr"/>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -39305,11 +39111,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1156" t="inlineStr"/>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -39342,11 +39144,7 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1157" t="inlineStr"/>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -39379,11 +39177,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1158" t="inlineStr"/>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -39416,11 +39210,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1159" t="inlineStr"/>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -39453,11 +39243,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1160" t="inlineStr"/>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -39490,11 +39276,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1161" t="inlineStr"/>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -39523,15 +39305,11 @@
         <v>-152.92787143</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1162" t="inlineStr"/>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -39560,15 +39338,11 @@
         <v>-130.13280221</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1163" t="inlineStr"/>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -39597,15 +39371,11 @@
         <v>-118.37879673</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1164" t="inlineStr"/>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39634,15 +39404,11 @@
         <v>-121.97349673</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1165" t="inlineStr"/>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39671,15 +39437,11 @@
         <v>-135.88034122</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1166" t="inlineStr"/>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -39708,15 +39470,11 @@
         <v>-141.40377008</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1167" t="inlineStr"/>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39745,15 +39503,11 @@
         <v>-134.62179894</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1168" t="inlineStr"/>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39782,15 +39536,11 @@
         <v>-128.69906483</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1169" t="inlineStr"/>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39819,15 +39569,11 @@
         <v>-139.83876483</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1170" t="inlineStr"/>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39856,15 +39602,11 @@
         <v>-126.55731255</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1171" t="inlineStr"/>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39893,15 +39635,11 @@
         <v>-111.12940165</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1172" t="inlineStr"/>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39930,15 +39668,11 @@
         <v>-114.7873571</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1173" t="inlineStr"/>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39967,15 +39701,11 @@
         <v>-114.1840571</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1174" t="inlineStr"/>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -40004,15 +39734,11 @@
         <v>-105.86984201</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1175" t="inlineStr"/>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -40041,15 +39767,11 @@
         <v>-114.25929182</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1176" t="inlineStr"/>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -40078,15 +39800,11 @@
         <v>-107.1583167</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1177" t="inlineStr"/>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -40115,15 +39833,11 @@
         <v>-116.88492664</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1178" t="inlineStr"/>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -40152,15 +39866,11 @@
         <v>-129.46496178</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1179" t="inlineStr"/>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -40189,15 +39899,11 @@
         <v>-127.70325166</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1180" t="inlineStr"/>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -40226,15 +39932,11 @@
         <v>-136.35494651</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1181" t="inlineStr"/>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -40263,15 +39965,11 @@
         <v>-145.86323618</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -40300,15 +39998,11 @@
         <v>-151.78663618</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1183" t="inlineStr"/>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -40337,15 +40031,11 @@
         <v>-125.71214255</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1184" t="inlineStr"/>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -40374,15 +40064,11 @@
         <v>-125.83572054</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1185" t="inlineStr"/>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -40411,15 +40097,11 @@
         <v>-138.90165262</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1186" t="inlineStr"/>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -40448,15 +40130,11 @@
         <v>-153.16155262</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1187" t="inlineStr"/>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -40485,15 +40163,11 @@
         <v>-175.82275262</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1188" t="inlineStr"/>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -40522,15 +40196,11 @@
         <v>-162.26931699</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1189" t="inlineStr"/>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -40559,15 +40229,11 @@
         <v>-154.32371576</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1190" t="inlineStr"/>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -40596,15 +40262,11 @@
         <v>-159.29131576</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1191" t="inlineStr"/>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -40633,15 +40295,11 @@
         <v>-157.11711699</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1192" t="inlineStr"/>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40670,15 +40328,11 @@
         <v>-155.53561699</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1193" t="inlineStr"/>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40707,15 +40361,11 @@
         <v>-144.04095778</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1194" t="inlineStr"/>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40744,15 +40394,11 @@
         <v>-145.48084578</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1195" t="inlineStr"/>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40781,15 +40427,11 @@
         <v>-147.99034578</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1196" t="inlineStr"/>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40818,15 +40460,11 @@
         <v>-148.54374578</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1197" t="inlineStr"/>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40855,15 +40493,11 @@
         <v>-140.8959356</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1198" t="inlineStr"/>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40892,15 +40526,11 @@
         <v>-136.03574578</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1199" t="inlineStr"/>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40929,15 +40559,11 @@
         <v>-133.10784578</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1200" t="inlineStr"/>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40970,11 +40596,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1201" t="inlineStr"/>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -41003,15 +40625,11 @@
         <v>-147.2165915</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1202" t="inlineStr"/>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -41040,15 +40658,11 @@
         <v>-137.3424454300001</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1203" t="inlineStr"/>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -41077,15 +40691,11 @@
         <v>-122.8474202900001</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1204" t="inlineStr"/>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -41114,15 +40724,11 @@
         <v>-111.8489866400001</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1205" t="inlineStr"/>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -41151,15 +40757,11 @@
         <v>-88.08835431000006</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1206" t="inlineStr"/>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -41188,15 +40790,11 @@
         <v>-83.34853815000005</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1207" t="inlineStr"/>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -41225,15 +40823,11 @@
         <v>-70.31113815000005</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1208" t="inlineStr"/>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -41262,15 +40856,11 @@
         <v>-90.98995881000005</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1209" t="inlineStr"/>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -41303,11 +40893,7 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1210" t="inlineStr"/>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -41340,11 +40926,7 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1211" t="inlineStr"/>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -41377,11 +40959,7 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -41414,11 +40992,7 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41451,11 +41025,7 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41488,11 +41058,7 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41525,11 +41091,7 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1216" t="inlineStr"/>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -41562,11 +41124,7 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1217" t="inlineStr"/>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -41599,11 +41157,7 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1218" t="inlineStr"/>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -41636,11 +41190,7 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41673,11 +41223,7 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1220" t="inlineStr"/>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41710,11 +41256,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1221" t="inlineStr"/>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41747,11 +41289,7 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1222" t="inlineStr"/>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41784,11 +41322,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1223" t="inlineStr"/>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41821,11 +41355,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1224" t="inlineStr"/>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41858,11 +41388,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1225" t="inlineStr"/>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41895,11 +41421,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1226" t="inlineStr"/>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41932,11 +41454,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1227" t="inlineStr"/>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41969,11 +41487,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1228" t="inlineStr"/>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -42006,11 +41520,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1229" t="inlineStr"/>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -42043,11 +41553,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1230" t="inlineStr"/>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -42080,11 +41586,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1231" t="inlineStr"/>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -42117,11 +41619,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1232" t="inlineStr"/>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -42154,11 +41652,7 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1233" t="inlineStr"/>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -42191,11 +41685,7 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1234" t="inlineStr"/>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -42228,11 +41718,7 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -42265,11 +41751,7 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -42302,11 +41784,7 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -42339,11 +41817,7 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -42376,11 +41850,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -42413,11 +41883,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -42450,11 +41916,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -42487,11 +41949,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -42524,11 +41982,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -42561,11 +42015,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -42598,11 +42048,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -42635,11 +42081,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -42672,11 +42114,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42709,11 +42147,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -42746,11 +42180,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
-      <c r="K1249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1249" t="inlineStr"/>
       <c r="L1249" t="n">
         <v>1</v>
       </c>
@@ -42783,11 +42213,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1250" t="inlineStr"/>
       <c r="L1250" t="n">
         <v>1</v>
       </c>
@@ -42820,11 +42246,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
-      <c r="K1251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1251" t="inlineStr"/>
       <c r="L1251" t="n">
         <v>1</v>
       </c>
@@ -42853,16 +42275,14 @@
         <v>-45.25565382000005</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
-      <c r="K1252" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L1252" t="inlineStr"/>
+      <c r="K1252" t="inlineStr"/>
+      <c r="L1252" t="n">
+        <v>1</v>
+      </c>
       <c r="M1252" t="inlineStr"/>
     </row>
     <row r="1253">
@@ -42921,7 +42341,7 @@
         <v>-50.60695386000005</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -42954,7 +42374,7 @@
         <v>-50.60695386000005</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -42987,7 +42407,7 @@
         <v>-48.80526365000005</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -43020,7 +42440,7 @@
         <v>-52.91336365000005</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
@@ -43053,7 +42473,7 @@
         <v>-57.27436365000005</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
@@ -43086,7 +42506,7 @@
         <v>-35.33556365000005</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -43119,7 +42539,7 @@
         <v>-24.25236365000005</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -43152,7 +42572,7 @@
         <v>-36.67716365000005</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
@@ -43185,7 +42605,7 @@
         <v>-39.34930177000005</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
@@ -43218,7 +42638,7 @@
         <v>-37.37586874000004</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -43251,7 +42671,7 @@
         <v>-37.37586874000004</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
@@ -43284,7 +42704,7 @@
         <v>-46.91796874000004</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
@@ -43317,7 +42737,7 @@
         <v>-51.52106874000004</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
@@ -43350,7 +42770,7 @@
         <v>-52.93798105000004</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
@@ -43383,7 +42803,7 @@
         <v>-51.28908105000004</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
@@ -43416,7 +42836,7 @@
         <v>-61.07428105000004</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
@@ -43449,7 +42869,7 @@
         <v>-66.29848105000003</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
@@ -43482,7 +42902,7 @@
         <v>-75.20108105000003</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
@@ -43515,7 +42935,7 @@
         <v>-75.11238105000002</v>
       </c>
       <c r="H1272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
@@ -43548,7 +42968,7 @@
         <v>-79.01478105000002</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
@@ -43581,7 +43001,7 @@
         <v>-79.01478105000002</v>
       </c>
       <c r="H1274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -43614,7 +43034,7 @@
         <v>-67.14158105000003</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -43647,7 +43067,7 @@
         <v>-70.32349177000003</v>
       </c>
       <c r="H1276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -43680,7 +43100,7 @@
         <v>-74.05809177000003</v>
       </c>
       <c r="H1277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
@@ -43713,7 +43133,7 @@
         <v>-79.44093536000003</v>
       </c>
       <c r="H1278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
@@ -43746,7 +43166,7 @@
         <v>-85.03670010000002</v>
       </c>
       <c r="H1279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
@@ -43779,7 +43199,7 @@
         <v>-86.39320014000002</v>
       </c>
       <c r="H1280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
@@ -43812,7 +43232,7 @@
         <v>-95.08348838000002</v>
       </c>
       <c r="H1281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
@@ -43845,7 +43265,7 @@
         <v>-97.88568838000002</v>
       </c>
       <c r="H1282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
@@ -43878,7 +43298,7 @@
         <v>-94.00087662000001</v>
       </c>
       <c r="H1283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
@@ -43911,7 +43331,7 @@
         <v>-99.26971086000002</v>
       </c>
       <c r="H1284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
@@ -43944,7 +43364,7 @@
         <v>-93.76773223000002</v>
       </c>
       <c r="H1285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
@@ -43977,7 +43397,7 @@
         <v>-89.60723223000002</v>
       </c>
       <c r="H1286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
@@ -44010,7 +43430,7 @@
         <v>-75.12423223000002</v>
       </c>
       <c r="H1287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
@@ -44043,7 +43463,7 @@
         <v>-48.76653223000002</v>
       </c>
       <c r="H1288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
@@ -44076,7 +43496,7 @@
         <v>-50.06425222000001</v>
       </c>
       <c r="H1289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
@@ -44109,7 +43529,7 @@
         <v>-54.52482657000002</v>
       </c>
       <c r="H1290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
@@ -44142,7 +43562,7 @@
         <v>-49.56154656000002</v>
       </c>
       <c r="H1291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
@@ -44175,7 +43595,7 @@
         <v>-57.48454656000002</v>
       </c>
       <c r="H1292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -44208,7 +43628,7 @@
         <v>-61.53348408000002</v>
       </c>
       <c r="H1293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -44241,7 +43661,7 @@
         <v>-66.97599933000002</v>
       </c>
       <c r="H1294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
@@ -44274,7 +43694,7 @@
         <v>-69.25139933000003</v>
       </c>
       <c r="H1295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
@@ -44307,7 +43727,7 @@
         <v>-64.11550488000003</v>
       </c>
       <c r="H1296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -44340,7 +43760,7 @@
         <v>-62.61920488000003</v>
       </c>
       <c r="H1297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -44373,7 +43793,7 @@
         <v>-54.62560488000003</v>
       </c>
       <c r="H1298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -44406,7 +43826,7 @@
         <v>-53.44250488000003</v>
       </c>
       <c r="H1299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -44439,7 +43859,7 @@
         <v>-53.44250488000003</v>
       </c>
       <c r="H1300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -44472,7 +43892,7 @@
         <v>-51.90077516000003</v>
       </c>
       <c r="H1301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -44505,7 +43925,7 @@
         <v>-61.22711654000003</v>
       </c>
       <c r="H1302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -44538,7 +43958,7 @@
         <v>-66.50921654000004</v>
       </c>
       <c r="H1303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -44571,7 +43991,7 @@
         <v>-69.14111656000004</v>
       </c>
       <c r="H1304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -44604,7 +44024,7 @@
         <v>-75.41567808000005</v>
       </c>
       <c r="H1305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -44637,7 +44057,7 @@
         <v>-70.99917808000005</v>
       </c>
       <c r="H1306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -44670,7 +44090,7 @@
         <v>-96.30340792000005</v>
       </c>
       <c r="H1307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -44703,7 +44123,7 @@
         <v>-98.47730787000006</v>
       </c>
       <c r="H1308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
@@ -44736,7 +44156,7 @@
         <v>-101.4534078700001</v>
       </c>
       <c r="H1309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -44769,7 +44189,7 @@
         <v>-103.8821078700001</v>
       </c>
       <c r="H1310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
@@ -44802,7 +44222,7 @@
         <v>-106.9562078700001</v>
       </c>
       <c r="H1311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -44835,7 +44255,7 @@
         <v>-119.6189078700001</v>
       </c>
       <c r="H1312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -44868,7 +44288,7 @@
         <v>-123.9382186900001</v>
       </c>
       <c r="H1313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -44901,7 +44321,7 @@
         <v>-110.6324186900001</v>
       </c>
       <c r="H1314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
@@ -44934,7 +44354,7 @@
         <v>-113.2135037500001</v>
       </c>
       <c r="H1315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
       <c r="J1315" t="inlineStr"/>
@@ -44967,7 +44387,7 @@
         <v>-112.7220004300001</v>
       </c>
       <c r="H1316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
@@ -45000,7 +44420,7 @@
         <v>-112.7220004300001</v>
       </c>
       <c r="H1317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
@@ -45033,7 +44453,7 @@
         <v>-112.7220004300001</v>
       </c>
       <c r="H1318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
@@ -45066,7 +44486,7 @@
         <v>-143.4728909000001</v>
       </c>
       <c r="H1319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
@@ -45099,7 +44519,7 @@
         <v>-154.9204909000001</v>
       </c>
       <c r="H1320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
@@ -45132,7 +44552,7 @@
         <v>-146.3037909000001</v>
       </c>
       <c r="H1321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1321" t="inlineStr"/>
       <c r="J1321" t="inlineStr"/>
@@ -45165,7 +44585,7 @@
         <v>-132.5573930400001</v>
       </c>
       <c r="H1322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
@@ -45198,7 +44618,7 @@
         <v>-150.0395390500001</v>
       </c>
       <c r="H1323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
@@ -45231,7 +44651,7 @@
         <v>-176.4219642200001</v>
       </c>
       <c r="H1324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
@@ -45264,7 +44684,7 @@
         <v>-169.6347397800001</v>
       </c>
       <c r="H1325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
@@ -45297,7 +44717,7 @@
         <v>-160.8201302700001</v>
       </c>
       <c r="H1326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
@@ -45330,7 +44750,7 @@
         <v>-151.4099302700001</v>
       </c>
       <c r="H1327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
@@ -45363,7 +44783,7 @@
         <v>-139.6730190600001</v>
       </c>
       <c r="H1328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1328" t="inlineStr"/>
       <c r="J1328" t="inlineStr"/>
@@ -45396,7 +44816,7 @@
         <v>-136.0707155400001</v>
       </c>
       <c r="H1329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
@@ -45429,7 +44849,7 @@
         <v>-133.5096682800001</v>
       </c>
       <c r="H1330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
@@ -45462,7 +44882,7 @@
         <v>-114.4452135200001</v>
       </c>
       <c r="H1331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
@@ -45495,7 +44915,7 @@
         <v>-111.4203781000001</v>
       </c>
       <c r="H1332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
@@ -45528,7 +44948,7 @@
         <v>-108.2073781000001</v>
       </c>
       <c r="H1333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
@@ -45561,7 +44981,7 @@
         <v>-122.5990082200001</v>
       </c>
       <c r="H1334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
@@ -45594,7 +45014,7 @@
         <v>-121.0530082200001</v>
       </c>
       <c r="H1335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
@@ -45825,7 +45245,7 @@
         <v>-133.3113052800001</v>
       </c>
       <c r="H1342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1342" t="inlineStr"/>
       <c r="J1342" t="inlineStr"/>
@@ -46067,6 +45487,6 @@
       <c r="M1349" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest BTC.xlsx
+++ b/BackTest/2020-01-11 BackTest BTC.xlsx
@@ -2992,7 +2992,7 @@
         <v>-32.15709316999999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-36.58429316999999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-19.77117607000002</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-21.35637607000002</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-21.30147607000002</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-22.23697607000003</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-22.28297607000003</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-22.37827607000003</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-23.12607607000003</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-17.55306059000003</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-13.47386059000003</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-13.47386059000003</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-13.41626059000003</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-13.47626059000003</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>7.575627379999976</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>13.75812737999998</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>7.282058229999976</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>7.317702709999976</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>7.342602709999976</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>7.263102709999975</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>8.573002709999976</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>9.552302709999976</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>9.641302709999977</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>9.698702709999976</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>6.300202709999976</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>6.294902709999976</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>7.340802709999975</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>9.654680429999974</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>9.717480429999974</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>9.600580429999974</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>4.788409949999973</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>5.864009949999972</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>22.52620994999997</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>36.06511223999997</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>62.82397799999997</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>53.41353198999997</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>58.65768116999997</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>59.24478110999997</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>61.43278121999997</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>75.02018121999997</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>81.82008121999996</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>73.37296063999996</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>64.53276063999996</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>63.49996063999996</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>62.11306063999996</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>58.62706063999997</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>47.49346063999997</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>45.30276063999997</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>45.06066063999997</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>48.14419007999997</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>44.86029007999996</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>45.43932021999996</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>45.33452021999997</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>45.21072021999996</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>44.94602021999997</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>41.90422019999997</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>41.90422019999997</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>41.73722019999997</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>38.83172019999996</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>35.00682019999996</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>31.03102021999996</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>30.54242021999996</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>31.42922021999996</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>30.36832024999996</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>30.67732024999996</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>29.83042024999996</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>29.70872024999996</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>29.44052024999996</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>29.66252024999996</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>29.58322024999996</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>29.24342024999996</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>29.92122024999996</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>30.64312024999996</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>30.64312024999996</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>30.90122024999996</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>31.49882024999996</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>31.18822024999996</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>22.05442024999996</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>21.33852024999996</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-92.98588915000003</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-90.92048915000004</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-91.18758915000004</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-90.91938915000004</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-85.56908915000004</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-85.77518915000005</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-86.77818915000005</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-73.49499707000005</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-73.51189707000006</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-73.46650035000006</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-73.30349707000006</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-73.12769707000007</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-73.37779707000007</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-73.83899707000008</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-72.47169707000008</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-65.30789707000008</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-65.07833363000007</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-65.08983363000007</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-64.04433363000007</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-64.12703363000007</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-64.18853363000007</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-64.69873363000006</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-64.69873363000006</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-57.33233363000006</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-80.87290022000008</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-76.38680022000008</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-74.79852837000008</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-67.25424468000006</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -33682,11 +33682,17 @@
         <v>-407.74351674</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>8761000</v>
+      </c>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33719,7 +33725,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33748,15 +33758,13 @@
         <v>-419.77796926</v>
       </c>
       <c r="H1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1011" t="n">
-        <v>8756000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1011" t="n">
@@ -33787,11 +33795,9 @@
         <v>-400.34419705</v>
       </c>
       <c r="H1012" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1012" t="n">
-        <v>8754000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
@@ -34196,9 +34202,11 @@
         <v>-403.6576779600001</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>8769000</v>
+      </c>
       <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
@@ -34233,9 +34241,11 @@
         <v>-403.9103189300001</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>8771000</v>
+      </c>
       <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
@@ -34270,9 +34280,11 @@
         <v>-396.8951189300001</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>8770000</v>
+      </c>
       <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
@@ -34307,9 +34319,11 @@
         <v>-400.6668081100001</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>8772000</v>
+      </c>
       <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
@@ -34344,9 +34358,11 @@
         <v>-397.3213081100001</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>8769000</v>
+      </c>
       <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
@@ -34888,9 +34904,11 @@
         <v>-363.5444933900001</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>8795000</v>
+      </c>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
@@ -34925,11 +34943,9 @@
         <v>-352.2343453500001</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1042" t="n">
-        <v>8797000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
@@ -38775,16 +38791,18 @@
         <v>-239.20475893</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1146" t="inlineStr"/>
+      <c r="L1146" t="n">
+        <v>1</v>
+      </c>
       <c r="M1146" t="inlineStr"/>
     </row>
     <row r="1147">
@@ -38810,11 +38828,15 @@
         <v>-239.20475893</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38843,11 +38865,15 @@
         <v>-231.24245893</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38876,11 +38902,15 @@
         <v>-245.48062266</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38909,11 +38939,15 @@
         <v>-236.62032266</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38942,11 +38976,15 @@
         <v>-219.59332402</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38975,11 +39013,15 @@
         <v>-228.62602431</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -39012,7 +39054,11 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -39041,11 +39087,15 @@
         <v>-227.19583241</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -39078,7 +39128,11 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -39111,7 +39165,11 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -39144,7 +39202,11 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -39177,7 +39239,11 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -39210,7 +39276,11 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -39243,7 +39313,11 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -39276,7 +39350,11 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -39305,11 +39383,15 @@
         <v>-152.92787143</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -39338,11 +39420,15 @@
         <v>-130.13280221</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -39371,11 +39457,15 @@
         <v>-118.37879673</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -39404,11 +39494,15 @@
         <v>-121.97349673</v>
       </c>
       <c r="H1165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -39437,11 +39531,15 @@
         <v>-135.88034122</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -39470,11 +39568,15 @@
         <v>-141.40377008</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -39503,11 +39605,15 @@
         <v>-134.62179894</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -39536,11 +39642,15 @@
         <v>-128.69906483</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -39569,11 +39679,15 @@
         <v>-139.83876483</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39602,11 +39716,15 @@
         <v>-126.55731255</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39635,11 +39753,15 @@
         <v>-111.12940165</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39668,11 +39790,15 @@
         <v>-114.7873571</v>
       </c>
       <c r="H1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39701,11 +39827,15 @@
         <v>-114.1840571</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39734,11 +39864,15 @@
         <v>-105.86984201</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39767,11 +39901,15 @@
         <v>-114.25929182</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39800,11 +39938,15 @@
         <v>-107.1583167</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39833,11 +39975,15 @@
         <v>-116.88492664</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39866,11 +40012,15 @@
         <v>-129.46496178</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39899,11 +40049,15 @@
         <v>-127.70325166</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39932,11 +40086,15 @@
         <v>-136.35494651</v>
       </c>
       <c r="H1181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr"/>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39965,11 +40123,15 @@
         <v>-145.86323618</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39998,11 +40160,15 @@
         <v>-151.78663618</v>
       </c>
       <c r="H1183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -40031,11 +40197,15 @@
         <v>-125.71214255</v>
       </c>
       <c r="H1184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -40064,11 +40234,15 @@
         <v>-125.83572054</v>
       </c>
       <c r="H1185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -40097,11 +40271,15 @@
         <v>-138.90165262</v>
       </c>
       <c r="H1186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -40130,11 +40308,15 @@
         <v>-153.16155262</v>
       </c>
       <c r="H1187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -40163,11 +40345,15 @@
         <v>-175.82275262</v>
       </c>
       <c r="H1188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -40196,11 +40382,15 @@
         <v>-162.26931699</v>
       </c>
       <c r="H1189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -40229,11 +40419,15 @@
         <v>-154.32371576</v>
       </c>
       <c r="H1190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -40262,11 +40456,15 @@
         <v>-159.29131576</v>
       </c>
       <c r="H1191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -40295,11 +40493,15 @@
         <v>-157.11711699</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -40328,11 +40530,15 @@
         <v>-155.53561699</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -40361,11 +40567,15 @@
         <v>-144.04095778</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -40394,11 +40604,15 @@
         <v>-145.48084578</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -40427,11 +40641,15 @@
         <v>-147.99034578</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -40460,11 +40678,15 @@
         <v>-148.54374578</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -40493,11 +40715,15 @@
         <v>-140.8959356</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -40526,11 +40752,15 @@
         <v>-136.03574578</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40559,11 +40789,15 @@
         <v>-133.10784578</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40596,7 +40830,11 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40625,11 +40863,15 @@
         <v>-147.2165915</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40658,11 +40900,15 @@
         <v>-137.3424454300001</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40691,11 +40937,15 @@
         <v>-122.8474202900001</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40724,11 +40974,15 @@
         <v>-111.8489866400001</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40757,11 +41011,15 @@
         <v>-88.08835431000006</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40790,11 +41048,15 @@
         <v>-83.34853815000005</v>
       </c>
       <c r="H1207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40823,11 +41085,15 @@
         <v>-70.31113815000005</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40856,11 +41122,15 @@
         <v>-90.98995881000005</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40893,7 +41163,11 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40926,7 +41200,11 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -40959,7 +41237,11 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40992,7 +41274,11 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41025,7 +41311,11 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41058,7 +41348,11 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41091,7 +41385,11 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -41124,7 +41422,11 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -41157,7 +41459,11 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -41190,7 +41496,11 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -41223,7 +41533,11 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -41256,7 +41570,11 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -41289,7 +41607,11 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -41322,7 +41644,11 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -41355,7 +41681,11 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -41388,7 +41718,11 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -41421,7 +41755,11 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41454,7 +41792,11 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41487,7 +41829,11 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41520,7 +41866,11 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41553,7 +41903,11 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41586,7 +41940,11 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41619,7 +41977,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41652,7 +42014,11 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41685,7 +42051,11 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41718,7 +42088,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41751,7 +42125,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41784,7 +42162,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41817,7 +42199,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41850,7 +42236,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41883,7 +42273,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41916,7 +42310,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41949,7 +42347,11 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41982,7 +42384,11 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -42015,7 +42421,11 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -42048,7 +42458,11 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -42081,7 +42495,11 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr"/>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -42114,7 +42532,11 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr"/>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -42143,14 +42565,16 @@
         <v>-28.73493014000005</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr"/>
-      <c r="L1248" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1248" t="inlineStr"/>
       <c r="M1248" t="inlineStr"/>
     </row>
     <row r="1249">
@@ -42176,7 +42600,7 @@
         <v>-47.07777058000005</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
@@ -42209,7 +42633,7 @@
         <v>-37.75221102000005</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
@@ -42242,7 +42666,7 @@
         <v>-29.16521092000005</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
@@ -42275,7 +42699,7 @@
         <v>-45.25565382000005</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
@@ -42308,7 +42732,7 @@
         <v>-50.60695386000005</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
@@ -42341,7 +42765,7 @@
         <v>-50.60695386000005</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -42374,7 +42798,7 @@
         <v>-50.60695386000005</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -42407,7 +42831,7 @@
         <v>-48.80526365000005</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -42440,7 +42864,7 @@
         <v>-52.91336365000005</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
@@ -42473,7 +42897,7 @@
         <v>-57.27436365000005</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
@@ -42506,7 +42930,7 @@
         <v>-35.33556365000005</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -42539,7 +42963,7 @@
         <v>-24.25236365000005</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -42572,7 +42996,7 @@
         <v>-36.67716365000005</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
@@ -42605,7 +43029,7 @@
         <v>-39.34930177000005</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
@@ -42638,7 +43062,7 @@
         <v>-37.37586874000004</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -42671,7 +43095,7 @@
         <v>-37.37586874000004</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
@@ -42704,7 +43128,7 @@
         <v>-46.91796874000004</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
@@ -42737,7 +43161,7 @@
         <v>-51.52106874000004</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
@@ -42770,7 +43194,7 @@
         <v>-52.93798105000004</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
@@ -42803,7 +43227,7 @@
         <v>-51.28908105000004</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
@@ -42836,7 +43260,7 @@
         <v>-61.07428105000004</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
@@ -42869,7 +43293,7 @@
         <v>-66.29848105000003</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
@@ -42902,7 +43326,7 @@
         <v>-75.20108105000003</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
@@ -42935,7 +43359,7 @@
         <v>-75.11238105000002</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
@@ -42968,7 +43392,7 @@
         <v>-79.01478105000002</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
@@ -43001,7 +43425,7 @@
         <v>-79.01478105000002</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -43034,7 +43458,7 @@
         <v>-67.14158105000003</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -43067,7 +43491,7 @@
         <v>-70.32349177000003</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -43100,7 +43524,7 @@
         <v>-74.05809177000003</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
@@ -43133,7 +43557,7 @@
         <v>-79.44093536000003</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
@@ -43166,7 +43590,7 @@
         <v>-85.03670010000002</v>
       </c>
       <c r="H1279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
@@ -43199,7 +43623,7 @@
         <v>-86.39320014000002</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
@@ -43496,7 +43920,7 @@
         <v>-50.06425222000001</v>
       </c>
       <c r="H1289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
@@ -43529,7 +43953,7 @@
         <v>-54.52482657000002</v>
       </c>
       <c r="H1290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
@@ -43562,7 +43986,7 @@
         <v>-49.56154656000002</v>
       </c>
       <c r="H1291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
@@ -43595,7 +44019,7 @@
         <v>-57.48454656000002</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -43628,7 +44052,7 @@
         <v>-61.53348408000002</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -43661,7 +44085,7 @@
         <v>-66.97599933000002</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
@@ -43694,7 +44118,7 @@
         <v>-69.25139933000003</v>
       </c>
       <c r="H1295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
@@ -43727,7 +44151,7 @@
         <v>-64.11550488000003</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -43760,7 +44184,7 @@
         <v>-62.61920488000003</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -43793,7 +44217,7 @@
         <v>-54.62560488000003</v>
       </c>
       <c r="H1298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -43826,7 +44250,7 @@
         <v>-53.44250488000003</v>
       </c>
       <c r="H1299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -43859,7 +44283,7 @@
         <v>-53.44250488000003</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -43892,7 +44316,7 @@
         <v>-51.90077516000003</v>
       </c>
       <c r="H1301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -43925,7 +44349,7 @@
         <v>-61.22711654000003</v>
       </c>
       <c r="H1302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -43958,7 +44382,7 @@
         <v>-66.50921654000004</v>
       </c>
       <c r="H1303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -43991,7 +44415,7 @@
         <v>-69.14111656000004</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -44024,7 +44448,7 @@
         <v>-75.41567808000005</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -44057,7 +44481,7 @@
         <v>-70.99917808000005</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -44090,7 +44514,7 @@
         <v>-96.30340792000005</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -44123,7 +44547,7 @@
         <v>-98.47730787000006</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
